--- a/Documentation/499a.xlsx
+++ b/Documentation/499a.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1099">
   <si>
     <t>Genre</t>
   </si>
@@ -161,52 +161,13 @@
     <t>governments', 'obstacles', 'final', 'hurdle', 'value', 'property', 'greater', 'cost', 'project', 'rule', 'communities', 'color', 'rural', 'areas', 'property', 'values', 'lower', 'white', 'communities'</t>
   </si>
   <si>
-    <t>property', 'obstacles', 'cost'</t>
-  </si>
-  <si>
-    <t>communities', 'areas', 'property'</t>
-  </si>
-  <si>
-    <t>['rural', 'hurdle', 'obstacles']</t>
-  </si>
-  <si>
-    <t>main', 'lines', 'vaccines'</t>
-  </si>
-  <si>
-    <t>vaccines', 'defense', 'unlikely'</t>
-  </si>
-  <si>
-    <t>virus', 'current', 'target'</t>
-  </si>
-  <si>
     <t>possible', 'variant', 'specific', 'booster', 'preliminary', 'reports', 'omicron', 'severe', 'illness', 'variant', 'weeks', 'concerns', 'data', 'months', 'variant', 'specific', 'shot', 'additional', 'study', 'timing', 'best', 'strategy', 'booster', 'shot', 'available'</t>
   </si>
   <si>
-    <t>booster', 'best', 'booster'</t>
-  </si>
-  <si>
-    <t>strategy', 'specific', 'best'</t>
-  </si>
-  <si>
-    <t>study', 'omicron', 'weeks'</t>
-  </si>
-  <si>
-    <t>best', 'timing', 'data'</t>
-  </si>
-  <si>
     <t>bizarre', 'flo', 'new', 'privacy', 'policy', 'women', 'intimate', 'information', 'united', 'states', 'companies', 'users', 'data', 'actions', 'privacy', 'policy'</t>
   </si>
   <si>
     <t>companies', 'data', 'privacy', 'assistant', 'consumer', 'reports', 'month', 'privacy', 'assistant', 'test', 'project'</t>
-  </si>
-  <si>
-    <t>privacy', 'companies', 'data'</t>
-  </si>
-  <si>
-    <t>data', 'month', 'consumer'</t>
-  </si>
-  <si>
-    <t>vaccines', 'virus', 'immune'</t>
   </si>
   <si>
     <t>manager day overwhelming" - @louis_jazz (2016)
@@ -394,28 +355,16 @@
     <t>control houston projects. This is a great opportunity if you are a professional, experienced and self-motivated individual. Our company has the ability to provide the following support to our clients: * Designing of the logo * Creating the</t>
   </si>
   <si>
-    <t>houston', 'officials', 'bond'</t>
-  </si>
-  <si>
     <t>houston officials bond officials can use to investigate the case, and the city will be able to investigate the incident too.
 “I want to commend the city officers and the city attorney for all they’ve done,” said Mayor Sy</t>
   </si>
   <si>
-    <t>residents', 'social', 'projects'</t>
-  </si>
-  <si>
     <t>residents social projects in the country. In this context, their ability to contribute to a better quality of life is a key element of this sustainable development agenda.
 For the last years, we have been working in partnership with the University of the Republic of Macedonia</t>
   </si>
   <si>
-    <t>hurricane', 'projects', 'flood'</t>
-  </si>
-  <si>
     <t>hurricane projects flood areas in the southern US
 At least 10 cities and counties in the US are preparing to declare emergencies in the wake of Hurricane Michael’s deadly storm surge, as the Category 4 storm approached the Eastern seaboard earlier this week</t>
-  </si>
-  <si>
-    <t>residents', 'social', 'hurricane'</t>
   </si>
   <si>
     <t>residents social hurricane.
@@ -423,43 +372,25 @@
 The first thing that I recall about the first visit is that it seemed a little out of the ordinary for a major community center to</t>
   </si>
   <si>
-    <t>bond', 'projects', 'index'</t>
-  </si>
-  <si>
     <t>bond projects index.
 It said the current project pipeline was an indicator that many more work-in-progress were possible than was recognised as yet, and that an international effort was needed to develop new models of sustainable development.
 The report also</t>
   </si>
   <si>
-    <t>social', 'projects', 'officials'</t>
-  </si>
-  <si>
     <t xml:space="preserve">social projects officials had previously identified as vulnerable to the effects of climate change: cities, towns, and rural areas that were experiencing an increase in temperature, as well as areas that were experiencing an increase in precipitation, both in terms of temperature and precipitation.
 </t>
   </si>
   <si>
-    <t>communities', 'fund', 'projects'</t>
-  </si>
-  <si>
     <t>communities fund projects that promote greater access for people who are homeless in Central London.
 As well as working with homeless people and charities, the team of researchers also conducted research of the impact of social provision for the poor and socially excluded in the UK.</t>
   </si>
   <si>
-    <t>agencies', 'money', 'cities'</t>
-  </si>
-  <si>
     <t>agencies money cities could find to rebuild.
 The city of Denver just completed its third major new project since the COVID-19 coronavirus outbreak. It's now slated to build a new high-rise tower, a new hospital, and a</t>
   </si>
   <si>
-    <t>dollars', 'counties', 'programs'</t>
-  </si>
-  <si>
     <t>dollars counties programs in Ohio. To see the information, click here.
 The National Guard Bureau is offering a free computer course on how to use computers for soldiers and civilians alike. Learn more at go.nbg</t>
-  </si>
-  <si>
-    <t>applicants', 'applications', 'infrastructure'</t>
   </si>
   <si>
     <t xml:space="preserve">applicants applications infrastructure
@@ -468,56 +399,29 @@
 </t>
   </si>
   <si>
-    <t>money', 'bill', 'federal'</t>
-  </si>
-  <si>
     <t>money bill federal bank money. If you don't have the money with you to stop the bank machine, just sit on your butt.
 Well, my first impression is, I am just as tired of paying them! I</t>
   </si>
   <si>
-    <t>highest', 'infrastructure', 'applications'</t>
-  </si>
-  <si>
-    <t>grant', 'competitive', 'agencies'</t>
-  </si>
-  <si>
     <t>grant competitive agencies. A large number of research reports and publications relating to different aspect of health information technology and biomedical information are accessible on www.infotec.be The project team includes representatives from the University Medical Center Utre</t>
   </si>
   <si>
     <t>highest infrastructure applications (e.g., electric vehicle charging stations, data center cooling towers, etc.) are often implemented using a high-temperature ceramic thermal barrier coating (TCB) laminate. TCB materials, which can</t>
   </si>
   <si>
-    <t>billions', 'grant', 'funds'</t>
-  </si>
-  <si>
     <t>billions grant funds to help communities and organizations in developing countries. This is in addition to the many other ways in which the Global Fund supports this work through its various programs - for example, through the GAVI program.</t>
   </si>
   <si>
-    <t>grant', 'climate', 'scores'</t>
-  </si>
-  <si>
     <t>grant climate scores can be calculated for the target country based on the country-specific population characteristics, and that the GHRs could be converted to the target values using the following formula ([@bib42]):$$\</t>
   </si>
   <si>
-    <t>counties', 'billions', 'cities'</t>
-  </si>
-  <si>
     <t>counties billions cities and towns and nations a whole lot more, including the new and improved World Wide Web and the Internet. I think the point is to create this world wide web out of the existing world wide web so that people</t>
   </si>
   <si>
-    <t>agencies', 'infrastructure', 'programs'</t>
-  </si>
-  <si>
     <t>agencies infrastructure programs, and is working to strengthen that community to achieve the same. "With the greatest respect for the many hardworking people that make this county great, this is a community that</t>
   </si>
   <si>
-    <t>money', 'pots', 'scores'</t>
-  </si>
-  <si>
     <t>money pots scores and I have a feeling that this might be an area where the lads need some assistance to get to grips with in order to become more comfortable in the team atmosphere,” he said. �</t>
-  </si>
-  <si>
-    <t>communities', 'property', 'governments'</t>
   </si>
   <si>
     <t>communities property governments. In particular, these types of
@@ -531,17 +435,11 @@
 </t>
   </si>
   <si>
-    <t>communities', 'hurdle', 'communities'</t>
-  </si>
-  <si>
     <t>communities hurdle communities to adopt digital solutions \[[@B40-ijerph-17-02876],[@B41-ijerph-17-02876]\].
 4.2. Digital Incentives {</t>
   </si>
   <si>
     <t>communities areas property tax system for the communities and residents. A tax system for tax that I’ve read about (here and here and here) in other states, there are many issues that need to be addressed. A tax system for</t>
-  </si>
-  <si>
-    <t>final', 'greater', 'rural'</t>
   </si>
   <si>
     <t>final greater rural community of the region (1871–1895)
@@ -555,21 +453,12 @@
 From the survey, it was found that</t>
   </si>
   <si>
-    <t>property', 'communities', 'hurdle'</t>
-  </si>
-  <si>
     <t>property communities hurdle over as well.
 I have been an advocate of a mixed use development as an alternative site for the area but I have to admit that I do cringe at the thought of what has happened.
 It is easy to</t>
   </si>
   <si>
-    <t>communities', 'greater', 'areas'</t>
-  </si>
-  <si>
     <t>communities greater areas of the world and, for example, a global area of one million square miles in the United States has about 2.5 million individuals. Accordingly, in order to satisfy the need of the population in the greater areas of the</t>
-  </si>
-  <si>
-    <t>communities', 'cost', 'color'</t>
   </si>
   <si>
     <t xml:space="preserve">communities cost color and sound to the world.
@@ -583,37 +472,19 @@
 A summary of the immunological results obtained with the VLP-based vaccines derived from each of the *M. tuberculosis* isolates or</t>
   </si>
   <si>
-    <t>surface', 'mutations', 'virus'</t>
-  </si>
-  <si>
     <t>surface mutations virus (MSV) and its derivatives are genetically stable and persistently infectible for several days, are capable of infecting a diverse range of hosts of different ages, are easily cultured, and have been adapted for use in a variety of biological assays. We have identified a number of novel mutations and alle</t>
   </si>
   <si>
-    <t>vaccines', 'changes', 'virus'</t>
-  </si>
-  <si>
     <t>vaccines changes virus, and in addition, the other two viruses are still more susceptible to immunocompromised human beings. This fact, in addition to the fact that the human body is an imperfect machine, creates the most difficult task in the design of any vaccine. Because a virus can mutate and</t>
   </si>
   <si>
-    <t>virus', 'multiple', 'main'</t>
-  </si>
-  <si>
     <t>virus multiple main objectives with regard to the clinical management of GBM using a clinical trial design. The results of this study suggest that the combination of irinotecan, a topoisomerase I inhibitor, and carmustine, an alkylating agent, is useful not only as a single regimen</t>
   </si>
   <si>
-    <t>multiple', 'lines', 'variant'</t>
-  </si>
-  <si>
     <t>multiple lines variant 2, p.Asn1541Pro, g.1860A\&gt;C, Ile835Tyr, c.1907-7_1907delCAG, c.1730G\&gt;A, p.Asn726Thr, c.1491</t>
   </si>
   <si>
-    <t>vaccine', 'immune', 'surface'</t>
-  </si>
-  <si>
     <t>vaccine immune surface antigen expression can be induced on lymph nodes and spleen cells and then migrated into local draining lymph nodes. This is a good approach to evaluate vaccine immunogenicity in experimental animals.</t>
-  </si>
-  <si>
-    <t>variant', 'lines', 'vaccines'</t>
   </si>
   <si>
     <t>variant', 'lines', 'vaccines', 'vax','vet', 'vi','ve', 'vh'],
@@ -621,20 +492,11 @@
 I'm trying to select the row where column name is 'vax</t>
   </si>
   <si>
-    <t>spike', 'virus', 'covid'</t>
-  </si>
-  <si>
     <t>spike virus covid-19). What is this? I am not so sure. The virus has affected not only humans, but some can even get infected from animals (cows, dogs).
 As far as I know this is not a disease that kills people, but it causes mild illness. And it</t>
   </si>
   <si>
-    <t>variant', 'system', 'covid'</t>
-  </si>
-  <si>
     <t>variant system covid-19/2019-nCoV-19Pt/COVID-19Pt/COVID-19Pt/COVID-19Pt/COVID-19Pt/COVID-19Pt/COVID-19Pt/COVID-19</t>
-  </si>
-  <si>
-    <t>surface', 'vaccine', 'lines'</t>
   </si>
   <si>
     <t>surface vaccine lines with high levels of heterozygosity (**Figure [2A](#F2){ref-type="fig"}**) are expected to be in their breeding condition. Similarly, lines with low-heterozygosity in the cross-type background should be in their breeding condition to ensure a high gene</t>
@@ -644,38 +506,20 @@
 What is the difference between H1N1 and Swine Flu that I</t>
   </si>
   <si>
-    <t>vaccines', 'immune', 'antibodies'</t>
-  </si>
-  <si>
     <t>vaccines immune antibodies response. In general, the lower the number of epitopes involved in a neutralization assay, the less likely that the antibodies have the breadth to block the immune response directed at different epitopes for subsequent vaccination</t>
-  </si>
-  <si>
-    <t>vaccines', 'unlikely', 'vaccine'</t>
   </si>
   <si>
     <t>vaccines unlikely vaccine.
 That would change the game, to say nothing of where the next influenza virus outbreak will be. The current situation is so severe that even the US has had to cancel its flu season due to</t>
   </si>
   <si>
-    <t>genetic', 'spike', 'vaccine'</t>
-  </si>
-  <si>
     <t>genetic spike vaccine Genetic spike-in vaccination Genetic resistance Granulocyte colony-stimulating factor Grass-feeding insecticide</t>
   </si>
   <si>
-    <t>changes', 'multiple', 'virus'</t>
-  </si>
-  <si>
     <t>changes multiple virus proteins and regulates the activity of interferon in a variety of cells \[[@CR54]--[@CR56]\]. The interaction between IRF3 and a variety of other host cell proteins</t>
   </si>
   <si>
-    <t>virus', 'virus', 'main'</t>
-  </si>
-  <si>
     <t>virus virus main protein in the presence of DTT (dithiothreitol). (**C**) Schematic representation of the *H.pylori* genome. The *H.pylori</t>
-  </si>
-  <si>
-    <t>important', 'current', 'target'</t>
   </si>
   <si>
     <t>important current target of COVID‐19, and it is important for our society not to be fooled into thinking that our economy has a robust position right now because of those very risks.
@@ -687,9 +531,6 @@
   </si>
   <si>
     <t>virus current target for antiviral therapies. Mutation of host protein that is required for viral replication can result in replication of the mutant virus. In this report, the authors demonstrate that the protein K3 has a high mutation</t>
-  </si>
-  <si>
-    <t>protein', 'system', 'mutations'</t>
   </si>
   <si>
     <t>protein system mutations can result in an enhanced susceptibility to tumorigenesis and/or a reduction in lifespan. In fact, mutations in tumor suppressor genes are commonly associated with increased risk of the development of cancer. As a consequence</t>
@@ -708,20 +549,11 @@
     <t xml:space="preserve">study omicron weeks  </t>
   </si>
   <si>
-    <t>specific', 'variant', 'shot'</t>
-  </si>
-  <si>
     <t>specific variant shot was an obvious and, for some of us, pretty much meaningless gesture to the fans. (But that doesn't mean that the franchise hasn't had its moments of success, of which I have to admit to having a lot).
 There is something particularly depressing about a "canned" storyline, which I found myself wondering a little while I read your article. I can't say which one of the many possibilities I had</t>
   </si>
   <si>
-    <t>weeks', 'additional', 'timing'</t>
-  </si>
-  <si>
     <t>weeks additional timing of exposure to TSE than a single dose. However, there were no significant differences in the severity of TSE-related complications, such as hearing loss, hearing impairment, psychiatric features, epileptic seizures, and depression as well as death rate, in rats that received TSE exposure for 24 weeks after the 8-week of TSE exposure, compared to that of the control group (Table [S</t>
-  </si>
-  <si>
-    <t>reports', 'specific', 'concerns'</t>
   </si>
   <si>
     <t>reports specific concerns for the future, such as increasing traffic demand,
@@ -734,16 +566,10 @@
 [0030] The example embodiments may</t>
   </si>
   <si>
-    <t>shot', 'booster', 'omicron'</t>
-  </si>
-  <si>
     <t>shot booster omicron_e (b) and _m_ – _e_ – _a_ (f). The arrows point from the upper to the lower hemispheres. (d) and (f) show the same data, but plotted against redefined redshift values. The arrows in (e), (f) and (g) are to the same scale. The arrows in (d) are to the same scale</t>
   </si>
   <si>
     <t>best timing data, a high-order moment (HOM) analysis of the spin-polarized GGA ($v_{\text{ddg}}$) and DFT+U ($v_\text{U}$) parameters together yield a very accurate value of $B^{max}_1$[^1] – $|\Delta \nu|$ = 0.0029 eV $\gg$ 0</t>
-  </si>
-  <si>
-    <t>concerns', 'best', 'study'</t>
   </si>
   <si>
     <t>concerns best study of the matter.
@@ -752,13 +578,7 @@
 [^4]: This was proven in Ref. [@Gub</t>
   </si>
   <si>
-    <t>months', 'timing', 'best'</t>
-  </si>
-  <si>
     <t>months timing best suited to that job. As the first steps in these matters, the present inventors had two objectives: 1) to provide a novel method of making high-quality polysilicon thin films and in particular a method of producing polysilicon thin films with a uniform thickness and a mean grain size as small as possible in a single-step and highly reproducible manner by high-throughput, and 2) to provide a method</t>
-  </si>
-  <si>
-    <t>companies', 'people', 'information'</t>
   </si>
   <si>
     <t>companies people information on how to help people and how to do so, and when
@@ -766,26 +586,14 @@
 resources out there, but the problem is getting enough people</t>
   </si>
   <si>
-    <t>choice', 'website', 'honest'</t>
-  </si>
-  <si>
     <t>choice website honest.org.
 “You can get yourself an honest education, without sacrificing your values, without sacrificing your rights, without sacrificing your principles,” he said.
 “We have all these great values</t>
   </si>
   <si>
-    <t>privacy', 'confusing', 'honest'</t>
-  </si>
-  <si>
     <t xml:space="preserve">confusion that our lives are so complex.
 We spend our days in a constant state of confusion and confusion and confusion about
 </t>
-  </si>
-  <si>
-    <t>personal', 'information', 'website'</t>
-  </si>
-  <si>
-    <t>choice', 'personal', 'website'</t>
   </si>
   <si>
     <t>personal information website
@@ -799,30 +607,18 @@
 Category:Women ent</t>
   </si>
   <si>
-    <t>app', 'choice', 'document'</t>
-  </si>
-  <si>
     <t>app choice document, the court must consider the parties' arguments and determine
 whether the claims involve issues of law and can be decided without a trial on the
 5
   Although the district court is also required to consider the public and</t>
   </si>
   <si>
-    <t>app', 'people', 'able'</t>
-  </si>
-  <si>
     <t>app people able to see how much more I had improved since I had come to U.S.I.R.I.V., I began to think that perhaps my life might be the making of an actress.
 I have</t>
   </si>
   <si>
-    <t>personal', 'website', 'able'</t>
-  </si>
-  <si>
     <t>personal website able to receive e-mail, such as a Gmail account, is not. This will be a “spoiler”:
 How would you feel if you woke up one morning and found your entire website had been</t>
-  </si>
-  <si>
-    <t>information', 'privacy', 'website'</t>
   </si>
   <si>
     <t>information privacy website
@@ -831,34 +627,7 @@
 You may find it difficult to share your personal information because it is important for you to stay anonymous at times. However,</t>
   </si>
   <si>
-    <t>new', 'flo', 'information'</t>
-  </si>
-  <si>
-    <t>united', 'new', 'privacy'</t>
-  </si>
-  <si>
-    <t>information', 'policy', 'women'</t>
-  </si>
-  <si>
-    <t>data', 'bizarre', 'companies'</t>
-  </si>
-  <si>
-    <t>intimate', 'united', 'policy'</t>
-  </si>
-  <si>
-    <t>actions', 'privacy', 'policy'</t>
-  </si>
-  <si>
-    <t>flo', 'states', 'united'</t>
-  </si>
-  <si>
-    <t>intimate', 'bizarre', 'new'</t>
-  </si>
-  <si>
     <t>privacy', 'united', 'information'</t>
-  </si>
-  <si>
-    <t>data', 'intimate', 'bizarre'</t>
   </si>
   <si>
     <t>new flo information, we are interested to know if people, who are new to our store, are able to easily use our inventory software. The following section will have a simple example of this. This is just one example where we may want to ask how an employee can</t>
@@ -918,16 +687,10 @@
 For example, Facebook keeps a very detailed history of all your friends interactions with your profile, so they could easily have determined if I was your “friend” as opposed to</t>
   </si>
   <si>
-    <t>privacy', 'data', 'consumer'</t>
-  </si>
-  <si>
     <t>privacy data consumer consent (CCS) program, which includes the collection of
 customer data and other information, including name, city, telephone number,
 address, and e-mail address about each person who has registered to the
 data collection. We may also obtain data</t>
-  </si>
-  <si>
-    <t>assistant', 'privacy', 'privacy'</t>
   </si>
   <si>
     <t>assistant privacy privacy
@@ -951,20 +714,11 @@
 </t>
   </si>
   <si>
-    <t>consumer', 'reports', 'project'</t>
-  </si>
-  <si>
     <t>consumer reports project) in which four questions were answered by patients as an indirect measure of disease burden. The patient-reported survey contained items assessing general medical conditions for which a diagnosis had been made and for which treatment had been recommended. The survey for each question was completed by the same respondents. The responses</t>
-  </si>
-  <si>
-    <t>reports', 'privacy', 'privacy'</t>
   </si>
   <si>
     <t>reports privacy privacy legislation to combat abuse, theft of personal data and “unlawful snooping” in the digital age, the Parliamentary Under-Secretary of State for Trade, Scotland Office, said.
 Since the legislation was introduced, the number of complaints has been increasing, according</t>
-  </si>
-  <si>
-    <t>month', 'privacy', 'data'</t>
   </si>
   <si>
     <t>month privacy data retention
@@ -973,22 +727,13 @@
 The Privacy Act makes all government data records (whether or not publicly available) available to the</t>
   </si>
   <si>
-    <t>project', 'assistant', 'privacy'</t>
-  </si>
-  <si>
     <t>project assistant privacy
 Updated: Feb 11, 2017
 As a cloud service, Amazon EC2 has many of the characteristics of a public Wi-Fi hotspot. It has many features, such as a built-in mobile hotspot, and multiple locations. It has some of the characteristics</t>
   </si>
   <si>
-    <t>privacy', 'reports', 'project'</t>
-  </si>
-  <si>
     <t>privacy reports project’s first major test: ‘We’re here to tell you what we did and what happened’ Read more
 The government’s new intelligence agency, the GCSI, is now the latest target of a secretive security firm in the run</t>
-  </si>
-  <si>
-    <t>privacy', 'data', 'month'</t>
   </si>
   <si>
     <t>privacy data month of january of 2015,
@@ -1000,9 +745,6 @@
 February</t>
   </si>
   <si>
-    <t>month', 'assistant', 'privacy'</t>
-  </si>
-  <si>
     <t>month assistant privacy officer for the City of Albuquerque's Municipal Court and was in charge of ensuring that the law was followed in the court system, the Albuquerque Journal reported. Since her resignation, she has been "on the move," she said, working in numerous departments and jurisdictions across the city, while also</t>
   </si>
   <si>
@@ -1289,9 +1031,6 @@
     <t>a', 'bizarre', 'intimate', 'in', 'new'</t>
   </si>
   <si>
-    <t>'the', 'in', 'and', 'data', 'it', 'to', 'pretty', 'intimate'</t>
-  </si>
-  <si>
     <t>privacy', 'of', 'the', 'a', 'as', 'companies', 'data', 'your', 'to'</t>
   </si>
   <si>
@@ -1340,9 +1079,6 @@
   <si>
     <t xml:space="preserve">10.294117647058822
 </t>
-  </si>
-  <si>
-    <t>app', 'able', 'companies'</t>
   </si>
   <si>
     <t>If that is what happened to the Russian flu, it might bode well for the future. But there is another scenario. If today’s coronavirus behaves more like the flu, immunity against respiratory viruses is fleeting. That might mean a future of yearly Covid shots.</t>
@@ -1460,201 +1196,33 @@
     <t>whipworms', 'people', 'tropical', 'regions', 'access', 'proper', 'sanitation', 'infections', 'southern', 'united', 'states', 'worm', 'colon', 'eggs', 'feces', 'development', 'body', 'oral', 'contact', 'hands', 'soil', 'food', 'disease', 'trichuriasis', 'symptoms', 'mild', 'diarrhea', 'severe', 'cases', 'children', 'stunted', 'growth', 'cognitive', 'problems', 'disease', 'medication'</t>
   </si>
   <si>
-    <t>pathogen', 'descendants', 'flu'</t>
-  </si>
-  <si>
-    <t>cold', 'pandemics', 'descendants'</t>
-  </si>
-  <si>
-    <t>cold', 'flu', 'common'</t>
-  </si>
-  <si>
-    <t>coronavirus', 'flu', 'pandemic'</t>
-  </si>
-  <si>
-    <t>cold', 'russian', 'flu'</t>
-  </si>
-  <si>
-    <t>variants', 'years', 'flu'</t>
-  </si>
-  <si>
-    <t>viruses', 'coronaviruses', 'years'</t>
-  </si>
-  <si>
-    <t>flu', 'viruses', 'flu'</t>
-  </si>
-  <si>
-    <t>viruses', 'russian', 'new'</t>
-  </si>
-  <si>
-    <t>cold', 'coronavirus', 'years'</t>
-  </si>
-  <si>
-    <t>pandemic', 'viruses', 'coronaviruses'</t>
-  </si>
-  <si>
-    <t>dean', 'physicians', 'hospital'</t>
-  </si>
-  <si>
-    <t>san', 'populations', 'trauma'</t>
-  </si>
-  <si>
-    <t>trauma', 'san', 'patient'</t>
-  </si>
-  <si>
-    <t>ways', 'medicine', 'francisco'</t>
-  </si>
-  <si>
-    <t>convenient', 'derogatory', 'physicians'</t>
-  </si>
-  <si>
     <t>populations', 'center', 'center'</t>
   </si>
   <si>
-    <t>trauma', 'populations', 'people'</t>
-  </si>
-  <si>
-    <t>people', 'patient', 'shortcut'</t>
-  </si>
-  <si>
-    <t>medicine', 'populations', 'vulnerable'</t>
-  </si>
-  <si>
-    <t>adult', 'large', 'center'</t>
-  </si>
-  <si>
-    <t>patients', 'center', 'urban'</t>
-  </si>
-  <si>
     <t>center', 'notes', 'health'</t>
   </si>
   <si>
-    <t>electronic', 'study', 'white'</t>
-  </si>
-  <si>
-    <t>adult', 'urban', 'medical'</t>
-  </si>
-  <si>
-    <t>white', 'record', 'center'</t>
-  </si>
-  <si>
     <t>negative', 'large', 'patients'</t>
   </si>
   <si>
-    <t>study', 'study', 'white'</t>
-  </si>
-  <si>
-    <t>term', 'adult', 'negative'</t>
-  </si>
-  <si>
-    <t>affairs', 'medical', 'record'</t>
-  </si>
-  <si>
     <t>black', 'patients', 'year'</t>
   </si>
   <si>
-    <t>author', 'michael', 'sun'</t>
-  </si>
-  <si>
-    <t>michael', 'lead', 'black'</t>
-  </si>
-  <si>
-    <t>sun', 'pritzker', 'black'</t>
-  </si>
-  <si>
-    <t>michael', 'university', 'patients'</t>
-  </si>
-  <si>
-    <t>michael', 'student', 'patients'</t>
-  </si>
-  <si>
-    <t>pritzker', 'study', 'author'</t>
-  </si>
-  <si>
-    <t>chicago', 'black', 'lead'</t>
-  </si>
-  <si>
-    <t>patients', 'chicago', 'frequency'</t>
-  </si>
-  <si>
-    <t>words', 'university', 'black'</t>
-  </si>
-  <si>
-    <t>school', 'medical', 'author'</t>
-  </si>
-  <si>
-    <t>people', 'evidence', 'laboratory'</t>
-  </si>
-  <si>
-    <t>system', 'communications', 'day'</t>
-  </si>
-  <si>
     <t>delay', 'planet', 'system'</t>
   </si>
   <si>
-    <t>time', 'solar', 'evidence'</t>
-  </si>
-  <si>
-    <t>nasa', 'time', 'mission'</t>
-  </si>
-  <si>
     <t>control', 'fix', 'radio'</t>
   </si>
   <si>
-    <t>jet', 'mission', 'control'</t>
-  </si>
-  <si>
-    <t>mission', 'control', 'day'</t>
-  </si>
-  <si>
-    <t>mission', 'crater', 'radio'</t>
-  </si>
-  <si>
-    <t>time', 'laboratory', 'wrong'</t>
-  </si>
-  <si>
     <t>couple', 'diversion', 'engineers'</t>
   </si>
   <si>
-    <t>exploration', 'scientists', 'mission'</t>
-  </si>
-  <si>
-    <t>engineers', 'floor', 'earth'</t>
-  </si>
-  <si>
-    <t>exploration', 'rover', 'times'</t>
-  </si>
-  <si>
-    <t>rock', 'rocks', 'times'</t>
-  </si>
-  <si>
-    <t>mission', 'rock', 'times'</t>
-  </si>
-  <si>
     <t>exploration', 'problems', 'mission'</t>
   </si>
   <si>
-    <t>original', 'engineers', 'diversion'</t>
-  </si>
-  <si>
-    <t>scientists', 'exploration', 'future'</t>
-  </si>
-  <si>
     <t>rocks', 'future', 'cylinders'</t>
   </si>
   <si>
-    <t>size', 'diversion', 'times'</t>
-  </si>
-  <si>
-    <t>technology', 'cell', 'tanja'</t>
-  </si>
-  <si>
-    <t>technology', 'delta', 'bosak'</t>
-  </si>
-  <si>
-    <t>institute', 'discovery', 'perseverance'</t>
-  </si>
-  <si>
     <t>images', 'case', 'geobiologist'</t>
   </si>
   <si>
@@ -1736,123 +1304,21 @@
     <t>phnom', 'genetic', 'ivory'</t>
   </si>
   <si>
-    <t>crime', 'researchers', 'detailed'</t>
-  </si>
-  <si>
-    <t>tide', 'detailed', 'familial'</t>
-  </si>
-  <si>
-    <t>behaviour', 'networks', 'illegal'</t>
-  </si>
-  <si>
-    <t>crime', 'phnom', 'searching'</t>
-  </si>
-  <si>
-    <t>networks', 'ivory', 'hauls'</t>
-  </si>
-  <si>
-    <t>parts', 'tool', 'investigation'</t>
-  </si>
-  <si>
-    <t>information', 'nature', 'tusks'</t>
-  </si>
-  <si>
     <t>elephant', 'monday', 'large'</t>
   </si>
   <si>
-    <t>tusks', 'journal', 'researchers'</t>
-  </si>
-  <si>
     <t>ivory', 'shipments', 'hundreds'</t>
   </si>
   <si>
-    <t>individual', 'large', 'crime'</t>
-  </si>
-  <si>
-    <t>authors', 'ruins', 'chair'</t>
-  </si>
-  <si>
-    <t>gerace', 'high', 'sicily'</t>
-  </si>
-  <si>
-    <t>archaeological', 'foot', 'inches'</t>
-  </si>
-  <si>
     <t>italian', 'terra', 'journal'</t>
   </si>
   <si>
-    <t>terra', 'authors', 'round'</t>
-  </si>
-  <si>
-    <t>wicker', 'timber', 'rim'</t>
-  </si>
-  <si>
-    <t>round', 'villa', 'cover'</t>
-  </si>
-  <si>
-    <t>archaeological', 'timber', 'authors'</t>
-  </si>
-  <si>
     <t>authors', 'sides', 'foot'</t>
   </si>
   <si>
-    <t>round', 'archaeological', 'rim'</t>
-  </si>
-  <si>
-    <t>pot', 'calcified', 'fragments'</t>
-  </si>
-  <si>
-    <t>pot', 'wavy', 'pieces'</t>
-  </si>
-  <si>
-    <t>orange', 'outside', 'pieces'</t>
-  </si>
-  <si>
-    <t>pot', 'bit', 'outside'</t>
-  </si>
-  <si>
-    <t>sides', 'analysis', 'wavy'</t>
-  </si>
-  <si>
-    <t>decoration', 'concretions', 'outside'</t>
-  </si>
-  <si>
-    <t>concretions', 'pot', 'sides'</t>
-  </si>
-  <si>
-    <t>decoration', 'concretions', 'fragments'</t>
-  </si>
-  <si>
-    <t>wavy', 'sides', 'decoration'</t>
-  </si>
-  <si>
-    <t>bit', 'calcified', 'orange'</t>
-  </si>
-  <si>
-    <t>sides', 'pot', 'lines'</t>
-  </si>
-  <si>
-    <t>infections', 'tropical', 'cases'</t>
-  </si>
-  <si>
-    <t>stunted', 'severe', 'access'</t>
-  </si>
-  <si>
     <t>oral', 'regions', 'severe'</t>
   </si>
   <si>
-    <t>disease', 'whipworms', 'development'</t>
-  </si>
-  <si>
-    <t>states', 'trichuriasis', 'eggs'</t>
-  </si>
-  <si>
-    <t>disease', 'access', 'southern'</t>
-  </si>
-  <si>
-    <t>access', 'proper', 'united'</t>
-  </si>
-  <si>
     <t>symptoms', 'whipworms', 'growth'</t>
   </si>
   <si>
@@ -1869,72 +1335,6 @@
   </si>
   <si>
     <t>reports', 'russian', 'flu', 'patients', 'conditions', 'loss', 'taste', 'smell', 'long', 'covid', 'like', 'symptoms'</t>
-  </si>
-  <si>
-    <t>covid', 'fleeting', 'future'</t>
-  </si>
-  <si>
-    <t>today', 'covid', 'russian'</t>
-  </si>
-  <si>
-    <t>russian', 'flu', 'coronavirus'</t>
-  </si>
-  <si>
-    <t>immunity', 'coronavirus', 'today'</t>
-  </si>
-  <si>
-    <t>flu', 'covid', 'immunity'</t>
-  </si>
-  <si>
-    <t>respiratory', 'future', 'scenario'</t>
-  </si>
-  <si>
-    <t>covid', 'future', 'coronavirus'</t>
-  </si>
-  <si>
-    <t>future', 'russian', 'shots'</t>
-  </si>
-  <si>
-    <t>covid', 'scenario', 'flu'</t>
-  </si>
-  <si>
-    <t>flu', 'russian', 'fleeting'</t>
-  </si>
-  <si>
-    <t>flu', 'fleeting', 'future'</t>
-  </si>
-  <si>
-    <t>patients', 'covid', 'conditions'</t>
-  </si>
-  <si>
-    <t>like', 'patients', 'long'</t>
-  </si>
-  <si>
-    <t>loss', 'like', 'covid'</t>
-  </si>
-  <si>
-    <t>conditions', 'loss', 'like'</t>
-  </si>
-  <si>
-    <t>loss', 'patients', 'like'</t>
-  </si>
-  <si>
-    <t>flu', 'conditions', 'patients'</t>
-  </si>
-  <si>
-    <t>long', 'taste', 'patients'</t>
-  </si>
-  <si>
-    <t>covid', 'flu', 'like'</t>
-  </si>
-  <si>
-    <t>patients', 'covid', 'long'</t>
-  </si>
-  <si>
-    <t>long', 'flu', 'covid'</t>
-  </si>
-  <si>
-    <t>conditions', 'patients', 'covid'</t>
   </si>
   <si>
     <t>pathogen descendants flu. In fact, over half (56%) of all infections were caused by the flu with just 3% of all infections due to other agents such as mycobacteria, parasites, and viruses.[@b17-ceg-4-141],[@b33-ce</t>
@@ -3185,100 +2585,10 @@
     <t>smell', 'symptoms', 'russian'</t>
   </si>
   <si>
-    <t>taste', 'symptoms', 'smell'</t>
-  </si>
-  <si>
-    <t>smell', 'covid', 'conditions'</t>
-  </si>
-  <si>
-    <t>flu', 'russian', 'long'</t>
-  </si>
-  <si>
-    <t>conditions', 'reports', 'patients'</t>
-  </si>
-  <si>
-    <t>symptoms', 'covid', 'loss'</t>
-  </si>
-  <si>
-    <t>conditions', 'patients', 'long'</t>
-  </si>
-  <si>
-    <t>like', 'long', 'smell'</t>
-  </si>
-  <si>
-    <t>russian', 'loss', 'patients'</t>
-  </si>
-  <si>
-    <t>reports', 'like', 'smell'</t>
-  </si>
-  <si>
     <t>landy', 'start', '15-yard', 'lead', 'bannister', 'dr', 'bannister', 'lap', 'landy', 'final', 'turn', 'left', 'shoulder', 'bannister', 'bannister', 'right', 'landy', 'head', 'bannister', 'landy', 'second'</t>
   </si>
   <si>
-    <t>landy', 'bannister', 'bannister'</t>
-  </si>
-  <si>
-    <t>15-yard', 'turn', 'landy'</t>
-  </si>
-  <si>
-    <t>head', 'landy', 'right'</t>
-  </si>
-  <si>
-    <t>bannister', 'turn', 'lead'</t>
-  </si>
-  <si>
-    <t>bannister', 'landy', 'bannister'</t>
-  </si>
-  <si>
-    <t>landy', 'final', 'start'</t>
-  </si>
-  <si>
-    <t>turn', 'dr', 'landy'</t>
-  </si>
-  <si>
-    <t>bannister', 'turn', 'bannister'</t>
-  </si>
-  <si>
-    <t>right', 'bannister', 'second'</t>
-  </si>
-  <si>
-    <t>left', 'lead', 'second'</t>
-  </si>
-  <si>
     <t>landy', 'bannister', 'friends', 'landy', 'ralph', 'branca', 'bannister', 'bobby', 'thomson', 'newsday', 'bannister', 'new', 'york', 'giants', 'hitter', 'national', 'league', 'pennant', 'legendary', 'shot', 'world', 'landy', 'pitcher', 'fateful', 'inning', 'home', 'run', 'pitch', 'team', 'sorts'</t>
-  </si>
-  <si>
-    <t>pitcher', 'shot', 'home'</t>
-  </si>
-  <si>
-    <t>bannister', 'inning', 'newsday'</t>
-  </si>
-  <si>
-    <t>bannister', 'home', 'newsday'</t>
-  </si>
-  <si>
-    <t>ralph', 'legendary', 'giants'</t>
-  </si>
-  <si>
-    <t>league', 'landy', 'giants'</t>
-  </si>
-  <si>
-    <t>league', 'bannister', 'hitter'</t>
-  </si>
-  <si>
-    <t>bannister', 'landy', 'landy'</t>
-  </si>
-  <si>
-    <t>branca', 'home', 'bannister'</t>
-  </si>
-  <si>
-    <t>branca', 'national', 'league'</t>
-  </si>
-  <si>
-    <t>pennant', 'sorts', 'pitch'</t>
-  </si>
-  <si>
-    <t>landy', 'legendary', 'york'</t>
   </si>
   <si>
     <t>covid conditions taste like a "cave filled to the brim."
@@ -3429,12 +2739,1288 @@
 Comments
 You can follow this conversation by subscribing to the</t>
   </si>
+  <si>
+    <t>Output after training</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for the season. The team did well in a league that had held the playoffs for the second time in the past 10 years. That was the most for a team in a league that had led the league in points from the regular season.
+</t>
+  </si>
+  <si>
+    <t>.”
+Prairie’s move, which came a day after the resignation of a longtime Republican official, was made public after a senior administration official who spoke to the Guardian on condition of anonymity said he was not aware of the</t>
+  </si>
+  <si>
+    <t>. I had to make sure I had everything I needed. I spent my entire day out in the woods, in the small woods, and backcountry driving the car with nothing to worry about. I kept my eyes open to see if anyone was there</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> world and the danger of the new world.
+We have also seen a similar situation in the past couple of years, in which people were not only scared of the new world, but also scared of the old world. The fear of the new</t>
+  </si>
+  <si>
+    <t>, as well as how they’re planning ahead,” said Shilpa Kapoor, who was part of the Delhi team that won the Indian women’s national football team in 2014, when the team was named the Mumbai team</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> from the other side.
+The first thing to consider is the idea of having a mental state. It is a very important concept to understand. A mental state is a state that exists in the physical world. A mental state is not a physical</t>
+  </si>
+  <si>
+    <t>’s career.”
+The move came after the team announced it was dropping from the 2018 World Cup.
+The move comes after the club announced it was dropping from the 2019 European Championship.
+“We are very</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> my enthusiasm about what I would become,” he said.
+“I felt really lucky to be alive and I felt the same as I was: I felt very good.”
+When you’re not feeling the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the future of the United States.
+That's what I wanted to hear. I wanted to hear the news on the news. I wanted to hear the reason why I came here. And I wanted to hear if the United States would be</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> people. He was the first to admit, in the most recent of his recent travels, that his home in the western suburbs of Chicago, the one he had visited a few times, was “a massive and disgusting place.”
+</t>
+  </si>
+  <si>
+    <t>, a new way of thinking about the future, and the evolution of the future, while the current course is the same: the same way we think about the future. And, more specifically, the current course is the same: the same way we</t>
+  </si>
+  <si>
+    <t>, and the image is so awesome. This is my first time doing this, so I’m excited to share it with you.
+What I Learned…
+The camera is a bit of a problem with this shot, so I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Category:Finance in the United States
+Category:Federal Reserve System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with the United States, China and other allies, to help build ties with the United States. The alliance is also helping to build the world’s largest pipeline network.
+The alliance is also facilitating the development of a new trade network in</t>
+  </si>
+  <si>
+    <t>.
+Véronique Vergis, Le Monde de Paris
+« La décision, la loi du monde, a été révisée dans le cadre de la commission de la police. Les</t>
+  </si>
+  <si>
+    <t>of the Russian government trying to influence the 2016 U.S. presidential election from the Kremlin. The Russian military and intelligence services are investigating why the U.S. should be arming Russian servicemen and women in the past. The</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In a recent op-ed published in The Washington Post, the New York Times reported that a group of "expert" researchers involved in the research on water pollution have found that their conclusions are "fantasy" and that "they're</t>
+  </si>
+  <si>
+    <t>, and sometimes the wrong timing. If it’s a couple of weeks away, the first thing to do is to get yourself in the right place. It’s much easier to get started and more productive if you’re in</t>
+  </si>
+  <si>
+    <t>, as well as the first four time series at different levels. The last two time series, which are the most important for the analysis of the data, are the three time series that are most relevant for the global response: the first and last time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for my
+basket.
+He was lying near the bed. The doctor was looking for him.
+"Your auntie and I have a visit to see you tomorrow at 9 o'clock," he said.
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and sufficient.
+This is how you can get rid of the "pink" color. The blue and green color are really just color. The white is more important, because it's the color that's used in the previous image.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and the level of quality of the individual characters, the game is designed to be a truly interactive experience. It's a wonderful way to build character profiles from the beginning with a single shot, and then we'll build a character profile by playing through the</t>
+  </si>
+  <si>
+    <t>, and the many ways of achieving it.
+The ability to make it into a single, large, and seemingly unlimited amount of ingredients is what makes it so much more than just a fancy flavor. It also makes it easy to add a dash</t>
+  </si>
+  <si>
+    <t>, and the two games have been the same with very different scoring approaches. However, the players’ performances are the same.
+In the second set, the Steelers are 5-1 in their last two home games against the Lions. The</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> like, “The New York Times said. ‘If you’re going to have to pay for a bus, try again.’”
+And then, instead of calling for some other way to do it, the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> is the best.
+The second is a mix of a sort that I have been wanting to try for a while. This mix is of course more sophisticated than the first. It starts with a blend of organic acids and water. The organic acids</t>
+  </si>
+  <si>
+    <t>wide.”
+The new law will not replace existing laws and provisions, the officials said.
+“The new law will provide a new way to determine what a person is eligible for,” they said.
+The</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (A: 0, B: 4, C: 5).](pone.0088574.g006){#pone-0088574-g006}
+###### 
+Summary of results for the effect of the</t>
+  </si>
+  <si>
+    <t>in a couple of weeks. It’s a good time to get things organized and get out of the way. Here are some tips to help you get started: Check out the project you are working on Check out the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with their district, a few miles away. The group is in a precarious spot, said Steve White, a spokesman with the group's board.
+The group is on the move in an effort to reduce the risk of terrorism, he said,</t>
+  </si>
+  <si>
+    <t>houston officials bond</t>
+  </si>
+  <si>
+    <t>residents social projects</t>
+  </si>
+  <si>
+    <t>hurricane projects flood</t>
+  </si>
+  <si>
+    <t>residents social hurricane</t>
+  </si>
+  <si>
+    <t>bond projects index</t>
+  </si>
+  <si>
+    <t>social projects officials</t>
+  </si>
+  <si>
+    <t>communities fund projects</t>
+  </si>
+  <si>
+    <t>agencies money cities</t>
+  </si>
+  <si>
+    <t>dollars counties programs</t>
+  </si>
+  <si>
+    <t>applicants applications infrastructure</t>
+  </si>
+  <si>
+    <t>money bill federal</t>
+  </si>
+  <si>
+    <t>grant competitive agencies</t>
+  </si>
+  <si>
+    <t>highest infrastructure applications</t>
+  </si>
+  <si>
+    <t>billions grant funds</t>
+  </si>
+  <si>
+    <t>grant climate scores</t>
+  </si>
+  <si>
+    <t>counties billions cities</t>
+  </si>
+  <si>
+    <t>agencies infrastructure programs</t>
+  </si>
+  <si>
+    <t>money pots scores</t>
+  </si>
+  <si>
+    <t>communities property governments</t>
+  </si>
+  <si>
+    <t>property obstacles cost</t>
+  </si>
+  <si>
+    <t>communities hurdle communities</t>
+  </si>
+  <si>
+    <t>communities areas property</t>
+  </si>
+  <si>
+    <t>final greater rural</t>
+  </si>
+  <si>
+    <t>rural hurdle obstacles</t>
+  </si>
+  <si>
+    <t>property communities hurdle</t>
+  </si>
+  <si>
+    <t>communities greater areas</t>
+  </si>
+  <si>
+    <t>communities cost color</t>
+  </si>
+  <si>
+    <t>vaccines virus immune</t>
+  </si>
+  <si>
+    <t>surface mutations virus</t>
+  </si>
+  <si>
+    <t>vaccines changes virus</t>
+  </si>
+  <si>
+    <t>virus multiple main</t>
+  </si>
+  <si>
+    <t>multiple lines variant</t>
+  </si>
+  <si>
+    <t>vaccine immune surface</t>
+  </si>
+  <si>
+    <t>variant lines vaccines</t>
+  </si>
+  <si>
+    <t>spike virus covid</t>
+  </si>
+  <si>
+    <t>variant system covid</t>
+  </si>
+  <si>
+    <t>surface vaccine lines</t>
+  </si>
+  <si>
+    <t>main lines vaccines</t>
+  </si>
+  <si>
+    <t>vaccines immune antibodies</t>
+  </si>
+  <si>
+    <t>vaccines unlikely vaccine</t>
+  </si>
+  <si>
+    <t>genetic spike vaccine</t>
+  </si>
+  <si>
+    <t>changes multiple virus</t>
+  </si>
+  <si>
+    <t>virus virus main</t>
+  </si>
+  <si>
+    <t>important current target</t>
+  </si>
+  <si>
+    <t>vaccines defense unlikely</t>
+  </si>
+  <si>
+    <t>virus current target</t>
+  </si>
+  <si>
+    <t>protein system mutations</t>
+  </si>
+  <si>
+    <t>booster best booster</t>
+  </si>
+  <si>
+    <t>strategy specific best</t>
+  </si>
+  <si>
+    <t>study omicron weeks</t>
+  </si>
+  <si>
+    <t>specific variant shot</t>
+  </si>
+  <si>
+    <t>weeks additional timing</t>
+  </si>
+  <si>
+    <t>reports specific concerns</t>
+  </si>
+  <si>
+    <t>shot booster omicron</t>
+  </si>
+  <si>
+    <t>best timing data</t>
+  </si>
+  <si>
+    <t>concerns best study</t>
+  </si>
+  <si>
+    <t>months timing best</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the future.
+Towards the end of the year, the government will take action to make the climate crisis a reality. The first step will be to help the first two people in the developing world to access food and water, and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to the ground,” said the New York Times in a story last month. “And what do we know?”
+Tens of thousands of people have been evacuated from a massive flood in New York this week, the Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the year, the storm caused huge devastation and caused hundreds of deaths and injuries.
+In April, the French government agreed to pay $1.5 million for the property and repair of the water tower.
+A report released by the</t>
+  </si>
+  <si>
+    <t>. The new software allows you to create and move drawings in a specific order and to add them to projects. The software is available for download on Amazon.com. For additional information, visit the FAQ.
+Bond.js is a JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> have organized to help the public and the local community,” the group said. “This is an important opportunity to show the world that your vision is possible.”
+The group’s website is “Weed and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and private or government projects are not an option.
+                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to work on their infrastructure projects. They also need infrastructure projects that can be shared and shared by all cities. If you want to know more about the different approaches to funding cities and infrastructure projects, you can find the links at each city's website.</t>
+  </si>
+  <si>
+    <t>. The state and local governments are responsible for ensuring that children stay in the school or in the home for at least 6 weeks after the child is taken out of the home. Catherine H. Dolan, a spokesman for the Department of</t>
+  </si>
+  <si>
+    <t>, systems and methods, and systems and methods developed and tested by the applicant, in accordance with the present invention. The applicant has further disclosed the architecture and methods for implementing the applicant's applications in the applicant's website, website content, and website architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> law says the same thing. That is, you’re going to be able to take your taxes off, and then pay your full federal income taxes. That sounds like a good solution, but it’s not. It’s</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> that will oversee the project, according to an email from the project management team.
+The project manager, Tom Stoecker, is also looking for a new project title. He also is looking for a new project title to be announced as soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the first decade of this century.
+The federal government spent $3.4 billion on infrastructure projects last year, according to a report on the same report released this week by the National Transportation Safety Board. That includes more than $2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to help schools with high rates of under-representation.”
+The study found that the amount spent on education is much less than the amount spent on the other three categories, with the largest spending for the most time spent on the top</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for each trait, including measures of adaptation; and (ii) measures of resilience to climate change. The first step is to understand the causes of climate change. To that end, we have developed a new tool, the Climate Risk Model. This tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> across the U.S. in the past five years. The most recent was the first in a series, with the first in December.
+You can help by donating now:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to help organizations develop and deliver more robust infrastructure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> are often very modest. When I saw this I was thinking, if I can't do something, why can't I? I started thinking, and I've already said that about four times, and it's only a matter of time. But I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and groups that are concerned about the costs and benefits of these processes.”
+“The government should be looking into these very specific issues in this way,” he said. “We can’t do that without the</t>
+  </si>
+  <si>
+    <t>. This is why we need to think about the real world. We need to decide what makes sense to move forward.”
+This is where the ‘real world’ comes in. In fact, we’ve been trying</t>
+  </si>
+  <si>
+    <t>. This has caused us to reconsider health priorities and to be wary of the idea of government doing nothing.
+We’ve been doing this for the past year. As things get more complicated, we’ve had to address our health</t>
+  </si>
+  <si>
+    <t>, it would be possible to transfer to the next census tract only those citizens with some or all income who have obtained a certificate of residence from the Census Bureau.  An alternative would be to transfer all of the residents of the area to a county jail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> population density, by using the same average for the entire population.
+The two-year data for the years 1960 through 1996 were used to create a time series describing the urban core. The time series was ordered by urban population density, and then</t>
+  </si>
+  <si>
+    <t>. A specific obstacle is the fact that the driver of a vehicle is the only person who can control the vehicle. The driver of a vehicle is also the only person who can control the vehicle. The driver of a vehicle is also the only person who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+This article has been updated on points 2 and 3.
+This article has been updated on points 10 and 11.
+The Australian government has been trying to explain why a new ballot initiative is needed to combat climate change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the world are likely to be more closely identified with each other. In the US, for instance, global urbanization has increased in size and complexity, and so urbanization is likely to be more closely related to the global population. In fact,</t>
+  </si>
+  <si>
+    <t>, color, or other information related to the use of the device. The devices described herein may be used to provide information about individuals and groups.
+Examples of color television transmitters include color television receivers, such as color television receivers, that are capable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> system, and is of considerable interest to the clinical investigator.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (NV) and adenovirus (Ad) viruses, respectively. The most prevalent genetic subtypes were adenovirus 1 and 2, and was the most common in both viruses. The most common viral subtypes were adenovirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strains in the population from 1 to 23 years old. The authors suggest that future studies may help to determine whether the virus strains are genetically distinct. (Author's response file)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pathogenicity studies in mice and humans. The results showed that the virus was detected in the lungs, the spinal cord, in the brain, and the lymph nodes of the mice, and also in the kidneys of the rats. The results suggest that</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the *S*. *cerevisiae* genome. The region under selection is shown as an open circle in the figure. The position of the *S*. *cerevisiae* gene in the genome is indicated with a red vertical</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> molecules (such as CD62L, CD19, CD19a and CD19b, which are known to be important for the development of CD4 T-cell responses) was investigated in the present study.
+Patients and methods {</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (LVs) to the same antigen. The most abundant LVs were allopurinol-based vaccines (n=2/3), followed by low-dose LVs (n=1/3) or ritonavir (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 infection, we could not determine whether the virus itself, or any of the virions, had replicated in the lungs of the infected mice. However, a third possibility is that it was the virus that caused the mortality in the infected mice, or</t>
+  </si>
+  <si>
+    <t>ens and then applied it to the model. This is the way in which the model works, in which the covariance matrix is defined by the product of a linear combination of the prior and a covariance matrix.
+We now turn our attention</t>
+  </si>
+  <si>
+    <t>, which contain a large number of vaccines and a small number of vaccines. These vaccines can be used alone or in combination with each other in vaccines to generate a large number of different vaccines. These vaccines are usually administered during the first month of gestation and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to date.”
+That’s not the only way to make it through the year without facing the threat of pandas and other flu viruses. Vaccines to treat Zika virus and West Nile virus are still on the market, but</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and their effect on the immune system.
+It is important to note that none of the vaccines that we have available for the past two decades have been developed with the proper technology. That is because the vaccines require the production of antibodies that are specific</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> candidates.
+In 2009, the US State Department reported that the vaccines for measles and other respiratory viruses contained in vaccines administered to children were safe and effective. In fact, the US State Department recently expanded the coverage for measles and other respiratory viruses to include</t>
+  </si>
+  <si>
+    <t>, we administered the same strain of the vaccine at 4 or 8 weeks after the last booster in order to study whether a genetic immunity is present. In the third group of patients, we vaccinated a second strain at 5 and 10 weeks after the last booster</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> strains in the same way:
+http://www.ncbi.nlm.nih.gov/pubmed/23555510
+http://genetics.mit.edu/projects/genomics/Genomic-sequencing
+http</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the ICRP. The ICRP is a protein-based immunoadhesin, which is one of the main antigenic components of the ICRP. It is a small protein that binds to its receptor on T cells, which </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to be improved.
+The current administration is expected to address many of the challenges, including the long-term health of the children it cares for and how to manage them.
+“It’s a tough situation,”</t>
+  </si>
+  <si>
+    <t>(s). The study, which was published in the journal Infectious Diseases, will also examine the possibility of using viruses in vaccine development.”
+“There has been some debate over the timing of the vaccine in a way that has</t>
+  </si>
+  <si>
+    <t>and functional alterations in the *Cyp* system, the *Cyp* gene encodes for a protein involved in the regulation of many cellular processes. The *Cyp* gene is one of the three major *Cyp* genes in the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practices for the management of climate change.”
+A top environmental agency in the US, the Environment and Climate Change Office, recently released a new report on climate change that shows that the climate is changing at a faster pace than the previous report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+====================================================
+The median number of days of exposure to ultraviolet radiation during the first year of life has been estimated to be \~70 days ([@B1]). This is similar to the reported exposure in our study, where we estimated</t>
+  </si>
+  <si>
+    <t>about the State’s use of “non-lethal” measures to combat crime and the “disagreement” over the advisability of such measures.
+ADVERTISEMENT
+The State has declined to comment to The Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and a 2.6-meter long rocket. The rocket was designed to deliver high-energy rocket thrusts and to launch other rockets. The rocket was delivered to the United States Air Force in May 1971.
+The vehicle was launched from the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> on the evolution of climate.
+This work was also supported by Fundação para a Ciência e a Tecnologia (FCT) through the project “Fundação para a Ciência e</t>
+  </si>
+  <si>
+    <t>.
+About the author: J.R.G. Smith is a research associate at the Institute of Ecology and Evolution, University of St. Louis, and author of “The Ecology of Food: Evolution, Evolutionary Dynamics, and Evolution</t>
+  </si>
+  <si>
+    <t>.
+As the future of the world’s most developed countries develops, so does the future of our planet. But, in the meantime, we may be facing the next few decades of political instability and uncertainty, the next few years of</t>
+  </si>
+  <si>
+    <t>companies people information</t>
+  </si>
+  <si>
+    <t>choice website honest</t>
+  </si>
+  <si>
+    <t>privacy confusing honest</t>
+  </si>
+  <si>
+    <t>personal information website</t>
+  </si>
+  <si>
+    <t>app able companies</t>
+  </si>
+  <si>
+    <t>choice personal website</t>
+  </si>
+  <si>
+    <t>app choice document</t>
+  </si>
+  <si>
+    <t>app people able</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and services. The government can then use that information to help citizens develop better, more sustainable and environmentally friendly ways to take more actions.
+The government has made a decision. It is planning to continue the project, but it will go ahead and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (or at least most honest) news.
+(Note: While you could probably get a better job at the site, that only goes to the heart of what you’re doing and why. If you make it to the top of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to answer, and that the
+             to answer, and that the
+                                            to answer, and that the
+                                                                          </t>
+  </si>
+  <si>
+    <t>” who are still struggling to take advantage of their new-found markets, according to the latest government data, in the wake of the government’s announcement in November.
+“When the market is moving in the right direction,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> where you can get the latest information.”
+The government is planning a series of additional security measures to keep your personal information secure, such as requiring that you’re not sharing your phone number with anyone, and requiring that you�</t>
+  </si>
+  <si>
+    <t>. I have two web apps and need a way to find and sync my information. Can I just load a web form and then browse the website? Is there a way to get my information and upload it to my website? Or should I create a</t>
+  </si>
+  <si>
+    <t>, the current value of the variable. For example, if the variable is a name, then the current value of the variable must be a value other than the current one. For example, if the variable is a name, then the current value of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to find out why you're doing it.”</t>
+  </si>
+  <si>
+    <t>personal website able</t>
+  </si>
+  <si>
+    <t>information privacy website</t>
+  </si>
+  <si>
+    <t>new flo information</t>
+  </si>
+  <si>
+    <t>united new privacy</t>
+  </si>
+  <si>
+    <t>data intimate bizarre</t>
+  </si>
+  <si>
+    <t>privacy united information</t>
+  </si>
+  <si>
+    <t>intimate bizarre new</t>
+  </si>
+  <si>
+    <t>flo states united</t>
+  </si>
+  <si>
+    <t>actions privacy policy</t>
+  </si>
+  <si>
+    <t>intimate united policy</t>
+  </si>
+  <si>
+    <t>data bizarre companies</t>
+  </si>
+  <si>
+    <t>information policy women</t>
+  </si>
+  <si>
+    <t>conditions patients covid</t>
+  </si>
+  <si>
+    <t>long flu covid</t>
+  </si>
+  <si>
+    <t>patients covid long</t>
+  </si>
+  <si>
+    <t>covid flu like</t>
+  </si>
+  <si>
+    <t>long taste patients</t>
+  </si>
+  <si>
+    <t>flu conditions patients</t>
+  </si>
+  <si>
+    <t>loss patients like</t>
+  </si>
+  <si>
+    <t>conditions loss like</t>
+  </si>
+  <si>
+    <t>loss like covid</t>
+  </si>
+  <si>
+    <t>like patients long</t>
+  </si>
+  <si>
+    <t>patients covid conditions</t>
+  </si>
+  <si>
+    <t>flu fleeting future</t>
+  </si>
+  <si>
+    <t>flu russian fleeting</t>
+  </si>
+  <si>
+    <t>covid scenario flu</t>
+  </si>
+  <si>
+    <t>future russian shots</t>
+  </si>
+  <si>
+    <t>covid future coronavirus</t>
+  </si>
+  <si>
+    <t>flu covid immunity</t>
+  </si>
+  <si>
+    <t>respiratory future scenario</t>
+  </si>
+  <si>
+    <t>immunity coronavirus today</t>
+  </si>
+  <si>
+    <t>russian flu coronavirus</t>
+  </si>
+  <si>
+    <t>today covid russian</t>
+  </si>
+  <si>
+    <t>covid fleeting future</t>
+  </si>
+  <si>
+    <t>pandemic viruses coronaviruses</t>
+  </si>
+  <si>
+    <t>cold coronavirus years</t>
+  </si>
+  <si>
+    <t>viruses russian new</t>
+  </si>
+  <si>
+    <t>flu viruses flu</t>
+  </si>
+  <si>
+    <t>viruses coronaviruses years</t>
+  </si>
+  <si>
+    <t>variants years flu</t>
+  </si>
+  <si>
+    <t>cold russian flu</t>
+  </si>
+  <si>
+    <t>coronavirus flu pandemic</t>
+  </si>
+  <si>
+    <t>cold flu common</t>
+  </si>
+  <si>
+    <t>cold pandemics descendants</t>
+  </si>
+  <si>
+    <t>pathogen descendants flu</t>
+  </si>
+  <si>
+    <t>month assistant privacy</t>
+  </si>
+  <si>
+    <t>privacy data month</t>
+  </si>
+  <si>
+    <t>privacy reports project</t>
+  </si>
+  <si>
+    <t>project assistant privacy</t>
+  </si>
+  <si>
+    <t>month privacy data</t>
+  </si>
+  <si>
+    <t>reports privacy privacy</t>
+  </si>
+  <si>
+    <t>consumer reports project</t>
+  </si>
+  <si>
+    <t>data month consumer</t>
+  </si>
+  <si>
+    <t>assistant privacy privacy</t>
+  </si>
+  <si>
+    <t>privacy data consumer</t>
+  </si>
+  <si>
+    <t>privacy companies data</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to provide you with a personal account and password. However, it seems that you should be able to log into your account automatically. This can make it much more difficult to login in your account. The solution to this is to open a new browser window</t>
+  </si>
+  <si>
+    <t>, and it has a privacy policy on it.
+At the moment, the site, which is part of the IAM Privacy Shield, is still not open to the public. The site is working on a site that will be open to everyone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">. I would expect that the
+                                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and security systems, and the future of the world.”
+The government has also expanded the scope of its operations in a series of ways. In May, it increased the scope of its overseas deployments. In September, it expanded the scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> could do. For this reason, the researchers did not recommend them for this study because they were unable to provide this information in the first place. The study did, however, reveal some interesting findings. For instance, the women who had been given the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and the way it’s presented, and how it works. You have to be careful that people don’t confuse the word “flagged” with “flagged”. That’s why it’</t>
+  </si>
+  <si>
+    <t>.
+A:
+The following code is working in your case.  It is not working for me. 
+@JsonProperty("parameters")
+@JsonProperty("id")
+public class JsonProperty extends J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">” is not “an act of individual privacy.”
+                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> States, in opposition to the proposed nuclear program,” said one Republican Representative, who has called the proposal “a sham.”
+“We are not supporting the program,” said Representative Bill Schlesinger, a</t>
+  </si>
+  <si>
+    <t>the', 'in', 'and', 'data', 'it', 'to', 'pretty', 'intimate'</t>
+  </si>
+  <si>
+    <r>
+      <t>ageism, wh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ose roots are in the late eighteenth and early nineteenth centuries. A decade after the  publication, the author, Robert Louis Stevenson, published his first novel in English, the Adventures of Robin Hood
+                                                                                                                                                                                                                                                                the novel</t>
+    </r>
+  </si>
+  <si>
+    <t>symptoms and symptoms. A large proportion of patients with HIV infection may have HIV related complications, and in some cases, they may be lost to follow up.
+### Infection with Hepatitis C Virus (HCV) {#s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> was given to patients who were on anti-retroviral therapy and who had received a previous course of anti-retroviral therapy. Patients who were given a booster of another anti-retroviral drug were also given a second booster. During</t>
+  </si>
+  <si>
+    <t>. The same process was followed in the other studies. There were also no differences in the proportion of patients with a variant variant shot among the studies. The proportion of patients with a variant variant shot was lower in the R-PAP (1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> points to the next day and time when I'll be back to the hotel, so I can go and eat in the hotel room now. We can get to the riverboat and then we can walk to the riverboat, and then back to the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to provide the best possible security.”
+“We are excited to see your work being showcased at the National Cybersecurity Museum,” said Mark Davis, director of the National Cybersecurity Center at the National Institutes of Health. �</t>
+  </si>
+  <si>
+    <t>ly. And in a way, I’m sure it was a result of a series of events that had happened just a few months before, in the late 1980s and early 1990s, in a large open-air museum in the village</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the past.
+In a study published in the April 13 issue of the journal Proceedings of the National Academy of Sciences, researchers found that the use of a social networking site for the first time could lead to the creation of a social networking site</t>
+  </si>
+  <si>
+    <t>, the data-driven, user-based, digital-capable,
+or otherwise digitally-capable infrastructure.
+In addition to the above, the government has issued regulations that will
+reduce and eliminate privacy data collection and storage requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy. The privacy policy states, “If you have a system that does not provide the information that is requested by the government, then you should not be able to access this information.”
+The government says that the system is designed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> market, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry, industry,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Risk Analysis for the RHS is an ongoing project, led by a senior researcher who has been involved with the project. The project is ongoing, under the leadership of a senior researcher.
+The project has been funded by the Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy, which you can find here.
+What is the privacy policy?
+Privacy policies are required to be published for the first time in your browser. The policy is the best way to protect your personal information from spam, fraud, viruses</t>
+  </si>
+  <si>
+    <t>. This is a long-term project, and the current data are only available at the site. A project that takes as much as one year to complete is referred to as a multi-site project. The project is called a “multi-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy. In the meantime, I’ve been following the news of the U.S. government’s proposed data privacy law, which would require companies to allow users to choose which data sources they want to keep private. They would probably</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, and the new report shows how the “confidentiality”
+is actually protecting the right to privacy. And here’s a look at how the
+new report shows how the new privacy protections were applied.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and year. This should be more clearly defined in the document. The reason for this is that the data is not available for all countries. It should be made available for every country. The new government should make it possible for data to be shared.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> policy. The policy, in the form of email addresses, also includes information about the privacy policy. The privacy policy also includes information about the privacy policy and whether or not your account is listed.
+In addition, the privacy policy also includes a</t>
+  </si>
+  <si>
+    <t>orescein-conjugated anti-mouse IgG (Jackson ImmunoResearch Laboratories, West Grove, PA, USA) and anti-mouse immunoglobulin G (IgG) (Jackson ImmunoResearch Laboratories). The secondary antibodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the past,” he said. “So the future is uncertain and the future is uncertain.”
+One question, however, that most Americans are perplexed about: Who exactly is it that is at stake in this dispute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in the winter months. Most often, this is due to the natural flu season, and the common flu is now largely wiped out. If you should experience flu symptoms, please call your doctor. This is usually a good time to stop, but for</t>
+  </si>
+  <si>
+    <t>. The pandemic is likely to have a similar impact on the world but the virus may have a different mode of transmission.
+The virus has been found in the blood of several people who have had contact with infected people. The virus was found</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> — something of a strange thing. But he didn't know what he was doing. He was waiting for the right moment to decide what the next step would be.
+The next step would be to try to keep a distance. There was no</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to 1 month, and that the number of patients with flu was not significantly different from the group of patients without flu. Therefore, these results suggest that patients with flu might be at a higher risk for developing complications of flu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ago, were the first to show that coronaviruses were the first to cause pandemics. However, the virus was only the first to show that coronaviruses were the first to cause pandemics. That means it’</t>
+  </si>
+  <si>
+    <t>oroquinolones; ^1^*In vitro* infection of macrophages with a panel of influenza viruses.
+Infection of HepaRG cells with the panel of influenza viruses with the viral strain H1N1 (N</t>
+  </si>
+  <si>
+    <t>bie
+The new strain of russia virus is described based on the nucleotide sequences of the genome of the virus and the type strain of the new strain. The nucleotide sequence of the new strain of russia virus and the strain of the</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ago at the end of the pandemic, and it hasn’t been very long since the first coronavirus vaccine was available. But a few weeks ago, the virus was already circulating in the United States, and it wasn’t</t>
+  </si>
+  <si>
+    <t>, influenza, and Ebola viruses, such as the 1918 influenza pandemic.
+The pandemic of coronaviruses has killed more than 1,600 people and killed more than 1,100 people worldwide. The pandemic is the result of</t>
+  </si>
+  <si>
+    <t>, and then they’re done.”
+“We can’t just leave. We’ve got to get out of here.”
+In a separate interview, two US senators have called for his</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> influenza
+My experience with the flu has been to think about it for a while. I’m not sure I saw it as a pandemic, but I was thinking about it a lot.
+And that’s what I</t>
+  </si>
+  <si>
+    <t>, and that the virus causes severe influenza with a high mortality rate. The novel coronavirus infection caused a series of fatal infections in the United States, with the most severe cases occurring in the late 1980s. The pandemic, called COVID</t>
+  </si>
+  <si>
+    <t>. It is one of the most common coronaviruses that have been isolated from a number of different viruses, including the respiratory and urinary coronaviruses E, F, G, H and K. It is the most common respiratory coronav</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in mice.^[@B46],[@B47]^ They also found that the immune response to *C. albicans* is different from that of *C. glabrata*.^[@B48]^
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> of the future. The results suggested that a significant increase of lung volumes in the future will be required to reduce the risk of death. In this scenario, we would expect that the use of a high-dose regimen with a single-dose regimen will</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pandemic: report
+By: The Times of London
+Published: Thursday, May 17, 2019 at 3:04 a.m.
+Subscribe to our on-demand articles
+The coronavirus pandemic has killed more</t>
+  </si>
+  <si>
+    <t>. In the first of these, a Russian woman, in a high-pitch shot, looks directly into the camera’s eyes. Her hair is black, her eyes are closed. The Russian woman, whom everyone thought was an innocent bystand</t>
+  </si>
+  <si>
+    <t>oresces). These reports indicate that the most vulnerable populations in the HIV-infected population are among the low-density areas in the study area. The high incidence of AIDS patients in these areas is likely to indicate that patients are at high risk for</t>
+  </si>
+  <si>
+    <t>.
+"What exactly is a fleeting?" I asked.
+"You're thinking of a photograph of yourself? The one you saw in college?"
+I nodded. "That's a good one. It's a private thing."</t>
+  </si>
+  <si>
+    <t>, the danger of the future is greater. When we are told that we are in danger of losing all of our past, we respond with an irrational, self-absorbed, irrational fear of losing. So, while we may have a clear understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with diabetes mellitus and the use of insulin. There would be a large number of studies with small samples to address this question. We used a sample of 5,000 patients from the Veterans Affairs National Health and Nutrition Examination Survey to examine the use of</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> this and the possibility that the algorithm can be used for many applications.
+## Chapter 4  
+The Problem
+### Your Problem
+This chapter discusses the problems in the problems section. The next section is the **Problem** section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> you that have had surgery, and you look like a big cookie and you watch the world turn and you watch the world come and go.
+But there is a very real danger that people who have had surgery don’t get it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> with a known diagnosis of Rischl-Muller syndrome and one with unknown symptoms might be considered as patients with Rischl-Muller syndrome, which would be expected to have an increased risk of developing Rischl-Mull</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and those with chronic pain. All patients were followed for 1 year, and the patients were followed for another year. There were no significant changes in the physical signs of the disease. The results suggest that pain is not the only symptom in the chronic pain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> antibodies and a small amount of insulin, which is used to treat conditions such as diabetes and cardiovascular disease.
+There are no known treatments for the disease. However, the treatments are being developed and have been tried.
+Some of the treatments</t>
+  </si>
+  <si>
+    <t>dean physicians hospital</t>
+  </si>
+  <si>
+    <t>san populations trauma</t>
+  </si>
+  <si>
+    <t>trauma san patient</t>
+  </si>
+  <si>
+    <t>ways medicine francisco</t>
+  </si>
+  <si>
+    <t>convenient derogatory physicians</t>
+  </si>
+  <si>
+    <t>trauma populations people</t>
+  </si>
+  <si>
+    <t>people patient shortcut</t>
+  </si>
+  <si>
+    <t>medicine populations vulnerable</t>
+  </si>
+  <si>
+    <t>adult large center</t>
+  </si>
+  <si>
+    <t>patients center urban</t>
+  </si>
+  <si>
+    <t>electronic study white</t>
+  </si>
+  <si>
+    <t>white record center</t>
+  </si>
+  <si>
+    <t>adult urban medical</t>
+  </si>
+  <si>
+    <t>study study white</t>
+  </si>
+  <si>
+    <t>term adult negative</t>
+  </si>
+  <si>
+    <t>affairs medical record</t>
+  </si>
+  <si>
+    <t>author michael sun</t>
+  </si>
+  <si>
+    <t>michael lead black</t>
+  </si>
+  <si>
+    <t>sun pritzker black</t>
+  </si>
+  <si>
+    <t>michael university patients</t>
+  </si>
+  <si>
+    <t>michael student patients</t>
+  </si>
+  <si>
+    <t>pritzker study author</t>
+  </si>
+  <si>
+    <t>chicago black lead</t>
+  </si>
+  <si>
+    <t>patients chicago frequency</t>
+  </si>
+  <si>
+    <t>words university black</t>
+  </si>
+  <si>
+    <t>school medical author</t>
+  </si>
+  <si>
+    <t>people evidence laboratory</t>
+  </si>
+  <si>
+    <t>system communications day</t>
+  </si>
+  <si>
+    <t>time solar evidence</t>
+  </si>
+  <si>
+    <t>nasa time mission</t>
+  </si>
+  <si>
+    <t>jet mission control</t>
+  </si>
+  <si>
+    <t>mission control day</t>
+  </si>
+  <si>
+    <t>mission crater radio</t>
+  </si>
+  <si>
+    <t>time laboratory wrong</t>
+  </si>
+  <si>
+    <t>exploration scientists mission</t>
+  </si>
+  <si>
+    <t>engineers floor earth</t>
+  </si>
+  <si>
+    <t>exploration rover times</t>
+  </si>
+  <si>
+    <t>rock rocks times</t>
+  </si>
+  <si>
+    <t>mission rock times</t>
+  </si>
+  <si>
+    <t>original engineers diversion</t>
+  </si>
+  <si>
+    <t>scientists exploration future</t>
+  </si>
+  <si>
+    <t>size diversion times</t>
+  </si>
+  <si>
+    <t>technology cell tanja</t>
+  </si>
+  <si>
+    <t>technology delta bosak</t>
+  </si>
+  <si>
+    <t>institute discovery perseverance</t>
+  </si>
+  <si>
+    <t>crime researchers detailed</t>
+  </si>
+  <si>
+    <t>tide detailed familial</t>
+  </si>
+  <si>
+    <t>behaviour networks illegal</t>
+  </si>
+  <si>
+    <t>crime phnom searching</t>
+  </si>
+  <si>
+    <t>networks ivory hauls</t>
+  </si>
+  <si>
+    <t>parts tool investigation</t>
+  </si>
+  <si>
+    <t>information nature tusks</t>
+  </si>
+  <si>
+    <t>tusks journal researchers</t>
+  </si>
+  <si>
+    <t>individual large crime</t>
+  </si>
+  <si>
+    <t>authors ruins chair</t>
+  </si>
+  <si>
+    <t>gerace high sicily</t>
+  </si>
+  <si>
+    <t>archaeological foot inches</t>
+  </si>
+  <si>
+    <t>terra authors round</t>
+  </si>
+  <si>
+    <t>wicker timber rim</t>
+  </si>
+  <si>
+    <t>round villa cover</t>
+  </si>
+  <si>
+    <t>archaeological timber authors</t>
+  </si>
+  <si>
+    <t>round archaeological rim</t>
+  </si>
+  <si>
+    <t>pot calcified fragments</t>
+  </si>
+  <si>
+    <t>pot wavy pieces</t>
+  </si>
+  <si>
+    <t>orange outside pieces</t>
+  </si>
+  <si>
+    <t>pot bit outside</t>
+  </si>
+  <si>
+    <t>sides analysis wavy</t>
+  </si>
+  <si>
+    <t>decoration concretions outside</t>
+  </si>
+  <si>
+    <t>concretions pot sides</t>
+  </si>
+  <si>
+    <t>decoration concretions fragments</t>
+  </si>
+  <si>
+    <t>wavy sides decoration</t>
+  </si>
+  <si>
+    <t>bit calcified orange</t>
+  </si>
+  <si>
+    <t>sides pot lines</t>
+  </si>
+  <si>
+    <t>infections tropical cases</t>
+  </si>
+  <si>
+    <t>stunted severe access</t>
+  </si>
+  <si>
+    <t>disease whipworms development</t>
+  </si>
+  <si>
+    <t>states trichuriasis eggs</t>
+  </si>
+  <si>
+    <t>disease access southern</t>
+  </si>
+  <si>
+    <t>access proper united</t>
+  </si>
+  <si>
+    <t>branca national league</t>
+  </si>
+  <si>
+    <t>pennant sorts pitch</t>
+  </si>
+  <si>
+    <t>landy egendary york</t>
+  </si>
+  <si>
+    <t>branca home bannister</t>
+  </si>
+  <si>
+    <t>bannister landy landy</t>
+  </si>
+  <si>
+    <t>league bannister hitter</t>
+  </si>
+  <si>
+    <t>league landy giants</t>
+  </si>
+  <si>
+    <t>ralph legendary  giants</t>
+  </si>
+  <si>
+    <t>bannister home newsday</t>
+  </si>
+  <si>
+    <t>bannister inning newsday</t>
+  </si>
+  <si>
+    <t>pitcher shot home</t>
+  </si>
+  <si>
+    <t>left lead second</t>
+  </si>
+  <si>
+    <t>right bannister second</t>
+  </si>
+  <si>
+    <t>bannister turn bannister</t>
+  </si>
+  <si>
+    <t>turn dr landy</t>
+  </si>
+  <si>
+    <t>landy final start</t>
+  </si>
+  <si>
+    <t>bannister turn lead</t>
+  </si>
+  <si>
+    <t>bannister landy bannister</t>
+  </si>
+  <si>
+    <t>head landy right</t>
+  </si>
+  <si>
+    <t>15-yard turn landy</t>
+  </si>
+  <si>
+    <t>landy bannister bannister</t>
+  </si>
+  <si>
+    <t>reports like smell</t>
+  </si>
+  <si>
+    <t>russian loss patients</t>
+  </si>
+  <si>
+    <t>like long smell</t>
+  </si>
+  <si>
+    <t>conditions patients long</t>
+  </si>
+  <si>
+    <t>symptoms covid loss</t>
+  </si>
+  <si>
+    <t>conditions reports patients</t>
+  </si>
+  <si>
+    <t>smell covid conditions</t>
+  </si>
+  <si>
+    <t>flu russian long</t>
+  </si>
+  <si>
+    <t>taste symptoms smell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3510,6 +4096,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calisto MT"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3532,7 +4124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3604,6 +4196,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3885,10 +4478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3898,10 +4491,11 @@
     <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="15.36328125" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="49.81640625" customWidth="1"/>
+    <col min="8" max="8" width="43.36328125" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3925,13 +4519,16 @@
         <v>32</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3951,16 +4548,19 @@
         <v>33</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="J2">
         <v>6.0606060606060597</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="12" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3970,143 +4570,170 @@
         <v>34</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>275</v>
+        <v>189</v>
       </c>
       <c r="J3">
         <v>16.129032258064498</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="12" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="J4">
         <v>9.5238095238095202</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="F5" s="4" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="J5">
         <v>9.5238095238095202</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="J6">
         <v>18.367346938775501</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="12" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="J7">
         <v>17.241379310344801</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="C8" s="2"/>
       <c r="F8" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>279</v>
+        <v>193</v>
       </c>
       <c r="J8">
         <v>14.7540983606557</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C9" s="2"/>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="J9">
         <v>9.2307692307692299</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C10" s="2"/>
       <c r="F10" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="J10">
         <v>11.1111111111111</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C11" s="2"/>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="J11">
         <v>5.7971014492753596</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>2</v>
       </c>
@@ -4117,157 +4744,187 @@
         <v>13</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>283</v>
+        <v>197</v>
       </c>
       <c r="J13">
         <v>10.6796116504854</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="12" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="C14" s="2"/>
       <c r="F14" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="J14">
         <v>6.4102564102564097</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="12" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C15" s="2"/>
       <c r="F15" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="J15">
         <v>9.2592592592592595</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="C16" s="2"/>
       <c r="F16" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>286</v>
+        <v>200</v>
       </c>
       <c r="J16">
         <v>13.5416666666666</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C17" s="2"/>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="J17">
         <v>9.0909090909090899</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C18" s="2"/>
       <c r="F18" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>288</v>
+        <v>202</v>
       </c>
       <c r="J18">
         <v>7.4626865671641696</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="25" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="C19" s="2"/>
       <c r="F19" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>874</v>
+        <v>674</v>
       </c>
       <c r="J19">
         <v>8.6021505376344098</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>875</v>
+        <v>675</v>
       </c>
       <c r="J20">
         <v>8.0459770114942497</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="12" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C21" s="2"/>
       <c r="F21" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>289</v>
+        <v>203</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>290</v>
+        <v>204</v>
       </c>
       <c r="J21">
         <v>6.0240963855421601</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C22" s="2"/>
       <c r="F22" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="J22">
         <v>6.0240963855421601</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="12" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>3</v>
       </c>
@@ -4278,89 +4935,107 @@
         <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="J24">
         <v>8.4905660377358494</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="12" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>293</v>
+        <v>207</v>
       </c>
       <c r="J25">
         <v>3.125</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>876</v>
+        <v>676</v>
       </c>
       <c r="J26">
         <v>6.86274509803921</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>294</v>
+        <v>208</v>
       </c>
       <c r="J27">
         <v>8.8235294117646994</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="145" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="J28">
         <v>4.5871559633027497</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="12" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="J29">
         <v>9.7826086956521703</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="12" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -4377,145 +5052,175 @@
         <v>30</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>297</v>
+        <v>211</v>
       </c>
       <c r="J30">
         <v>10.958904109589</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="12" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
       <c r="J31">
         <v>1.5384615384615301</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F32" s="4" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="J32">
         <v>8.4507042253521103</v>
       </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="29" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F33" s="4" t="s">
-        <v>109</v>
+        <v>753</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
       <c r="J33">
         <v>7.2463768115942004</v>
       </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="12" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F34" s="4" t="s">
-        <v>111</v>
+        <v>754</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="J34">
         <v>10.958904109589</v>
       </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
-        <v>113</v>
+        <v>755</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>302</v>
+        <v>216</v>
       </c>
       <c r="J35">
         <v>9.5890410958904102</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F36" s="4" t="s">
-        <v>115</v>
+        <v>756</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>303</v>
+        <v>217</v>
       </c>
       <c r="J36">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="12" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F37" s="4" t="s">
-        <v>117</v>
+        <v>757</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>304</v>
+        <v>218</v>
       </c>
       <c r="J37">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F38" s="4" t="s">
-        <v>119</v>
+        <v>758</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>305</v>
+        <v>219</v>
       </c>
       <c r="J38">
         <v>13.043478260869501</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F39" s="4" t="s">
-        <v>121</v>
+        <v>759</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="J39">
         <v>14.084507042253501</v>
       </c>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="12" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>2</v>
       </c>
@@ -4526,153 +5231,186 @@
         <v>36</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>123</v>
+        <v>760</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>307</v>
+        <v>221</v>
       </c>
       <c r="J40">
         <v>12.307692307692299</v>
       </c>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>761</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="J41">
         <v>8.6956521739130395</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="25" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="304.5" x14ac:dyDescent="0.35">
       <c r="F42" s="4" t="s">
-        <v>127</v>
+        <v>762</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>309</v>
+        <v>223</v>
       </c>
       <c r="J42">
         <v>9.7222222222222197</v>
       </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="12" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F43" s="4" t="s">
-        <v>129</v>
+        <v>763</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>310</v>
+        <v>224</v>
       </c>
       <c r="J43">
         <v>10.294117647058799</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="12" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="232" x14ac:dyDescent="0.35">
       <c r="F44" s="10" t="s">
-        <v>132</v>
+        <v>764</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="J44">
         <v>7.5757575757575699</v>
       </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F45" s="4" t="s">
-        <v>131</v>
+        <v>765</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>312</v>
+        <v>226</v>
       </c>
       <c r="J45">
         <v>7.5757575757575699</v>
       </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="12" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F46" s="4" t="s">
-        <v>135</v>
+        <v>766</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>313</v>
+        <v>227</v>
       </c>
       <c r="J46">
         <v>12.1212121212121</v>
       </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="12" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F47" s="4" t="s">
-        <v>137</v>
+        <v>767</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F48" s="4" t="s">
-        <v>139</v>
+        <v>768</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="J48">
         <v>14.0625</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F49" s="4" t="s">
-        <v>141</v>
+        <v>769</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="J49">
         <v>11.6666666666666</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="F50" s="4" t="s">
-        <v>143</v>
+        <v>770</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="J50">
         <v>11.764705882352899</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C51" s="1">
         <v>3</v>
       </c>
@@ -4683,131 +5421,158 @@
         <v>38</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>145</v>
+        <v>771</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>877</v>
+        <v>677</v>
       </c>
       <c r="J51">
         <v>12.9629629629629</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="12" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F52" s="4" t="s">
-        <v>39</v>
+        <v>772</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>878</v>
+        <v>678</v>
       </c>
       <c r="J52">
         <v>9.3023255813953494</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F53" s="4" t="s">
-        <v>148</v>
+        <v>773</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="J53">
         <v>2.0833333333333299</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F54" s="4" t="s">
-        <v>40</v>
+        <v>774</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>318</v>
+        <v>232</v>
       </c>
       <c r="J54">
         <v>9.4339622641509404</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="232" x14ac:dyDescent="0.35">
       <c r="F55" s="4" t="s">
-        <v>151</v>
+        <v>775</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>319</v>
+        <v>233</v>
       </c>
       <c r="J55">
         <v>9.4339622641509404</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="12" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F56" s="3" t="s">
-        <v>41</v>
+        <v>776</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="J56">
         <v>10.6060606060606</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F57" s="15" t="s">
-        <v>154</v>
+        <v>777</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="J57">
         <v>10.6060606060606</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F58" s="4" t="s">
-        <v>156</v>
+        <v>778</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>322</v>
+        <v>236</v>
       </c>
       <c r="J58">
         <v>9.67741935483871</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="261" x14ac:dyDescent="0.35">
       <c r="F59" s="4" t="s">
-        <v>158</v>
+        <v>779</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>323</v>
+        <v>237</v>
       </c>
       <c r="J59">
         <v>14.516129032258</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="12" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4824,140 +5589,170 @@
         <v>37</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>54</v>
+        <v>780</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>324</v>
+        <v>238</v>
       </c>
       <c r="J60">
         <v>6.7567567567567499</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F61" s="4" t="s">
-        <v>161</v>
+        <v>781</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="J61">
         <v>6.9767441860465098</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="12" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F62" s="4" t="s">
-        <v>163</v>
+        <v>782</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="J62">
         <v>10.588235294117601</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F63" s="4" t="s">
-        <v>165</v>
+        <v>783</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="J63">
         <v>10.9756097560975</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="174" x14ac:dyDescent="0.35">
       <c r="F64" s="16" t="s">
-        <v>167</v>
+        <v>784</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="J64">
         <v>4.9180327868852398</v>
       </c>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K64" s="12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F65" s="16" t="s">
-        <v>169</v>
+        <v>785</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>328</v>
+        <v>242</v>
       </c>
       <c r="J65">
         <v>9.0909090909090899</v>
       </c>
-    </row>
-    <row r="66" spans="3:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="K65" s="12" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="66" spans="3:11" ht="116" x14ac:dyDescent="0.35">
       <c r="F66" s="16" t="s">
-        <v>171</v>
+        <v>786</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>329</v>
+        <v>243</v>
       </c>
       <c r="J66">
         <v>4.4776119402985</v>
       </c>
-    </row>
-    <row r="67" spans="3:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="K66" s="12" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F67" s="16" t="s">
-        <v>173</v>
+        <v>787</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="J67">
         <v>9.4117647058823497</v>
       </c>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K67" s="12" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F68" s="16" t="s">
-        <v>175</v>
+        <v>788</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68">
         <v>3.7037037037037002</v>
       </c>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="12" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F69" s="4" t="s">
-        <v>177</v>
+        <v>789</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>331</v>
+        <v>245</v>
       </c>
       <c r="J69">
         <v>9.4594594594594597</v>
       </c>
-    </row>
-    <row r="70" spans="3:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K69" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" ht="188.5" x14ac:dyDescent="0.35">
       <c r="C70" s="1">
         <v>2</v>
       </c>
@@ -4965,146 +5760,176 @@
         <v>22</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>42</v>
+        <v>790</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F71" s="4" t="s">
-        <v>180</v>
+        <v>791</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
       <c r="J71">
         <v>9.67741935483871</v>
       </c>
-    </row>
-    <row r="72" spans="3:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="K71" s="12" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F72" s="4" t="s">
-        <v>182</v>
+        <v>792</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="J72">
         <v>5.8823529411764701</v>
       </c>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F73" s="4" t="s">
-        <v>184</v>
+        <v>793</v>
       </c>
       <c r="H73" s="19" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" ht="145" x14ac:dyDescent="0.35">
       <c r="F74" s="4" t="s">
-        <v>186</v>
+        <v>794</v>
       </c>
       <c r="H74" s="20" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>336</v>
+        <v>250</v>
       </c>
       <c r="J74">
         <v>7.1428571428571397</v>
       </c>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F75" s="4" t="s">
-        <v>188</v>
+        <v>795</v>
       </c>
       <c r="H75" s="20" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>337</v>
+        <v>251</v>
       </c>
       <c r="J75">
         <v>3.84615384615384</v>
       </c>
-    </row>
-    <row r="76" spans="3:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="K75" s="12" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F76" s="4" t="s">
-        <v>190</v>
+        <v>796</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="J76">
         <v>6.1538461538461497</v>
       </c>
-    </row>
-    <row r="77" spans="3:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="K76" s="12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F77" s="4" t="s">
-        <v>43</v>
+        <v>797</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="J77">
         <v>9.0909090909090899</v>
       </c>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F78" s="11" t="s">
-        <v>44</v>
+        <v>798</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="J78">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="12" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.35">
       <c r="F79" s="4" t="s">
-        <v>194</v>
+        <v>799</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>341</v>
+        <v>255</v>
       </c>
       <c r="J79">
         <v>6.0606060606060597</v>
       </c>
-    </row>
-    <row r="80" spans="3:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="K79" s="25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" ht="203" x14ac:dyDescent="0.35">
       <c r="C80" s="1">
         <v>3</v>
       </c>
@@ -5112,149 +5937,182 @@
         <v>23</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="J80">
         <v>9.4339622641509404</v>
       </c>
-    </row>
-    <row r="81" spans="6:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="K80" s="12" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="81" spans="6:11" ht="261" x14ac:dyDescent="0.35">
       <c r="F81" s="4" t="s">
-        <v>47</v>
+        <v>801</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="J81">
         <v>9.4339622641509404</v>
       </c>
-    </row>
-    <row r="82" spans="6:10" ht="174" x14ac:dyDescent="0.35">
+      <c r="K81" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="82" spans="6:11" ht="261" x14ac:dyDescent="0.35">
       <c r="F82" s="4" t="s">
-        <v>47</v>
+        <v>801</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>344</v>
+        <v>258</v>
       </c>
       <c r="J82">
         <v>8.8495575221238898</v>
       </c>
-    </row>
-    <row r="83" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="12" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="83" spans="6:11" ht="261" x14ac:dyDescent="0.35">
       <c r="F83" s="4" t="s">
-        <v>48</v>
+        <v>802</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="6:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="K83" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="84" spans="6:11" ht="203" x14ac:dyDescent="0.35">
       <c r="F84" s="4" t="s">
-        <v>199</v>
+        <v>803</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="6:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="K84" s="12" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="85" spans="6:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F85" s="4" t="s">
-        <v>201</v>
+        <v>804</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="J85">
         <v>9.2592592592592595</v>
       </c>
-    </row>
-    <row r="86" spans="6:10" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="K85" s="12" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="86" spans="6:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F86" s="4" t="s">
-        <v>203</v>
+        <v>805</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>346</v>
+        <v>260</v>
       </c>
       <c r="J86">
         <v>6.86274509803921</v>
       </c>
-    </row>
-    <row r="87" spans="6:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="K86" s="12" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="87" spans="6:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F87" s="4" t="s">
-        <v>205</v>
+        <v>806</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="J87">
         <v>6.1224489795918302</v>
       </c>
-    </row>
-    <row r="88" spans="6:10" x14ac:dyDescent="0.35">
+      <c r="K87" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="88" spans="6:11" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F88" s="4" t="s">
-        <v>49</v>
+        <v>807</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>348</v>
+        <v>262</v>
       </c>
       <c r="J88">
         <v>5.1546391752577296</v>
       </c>
-    </row>
-    <row r="89" spans="6:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="K88" s="12" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="89" spans="6:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F89" s="4" t="s">
-        <v>208</v>
+        <v>808</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>349</v>
+        <v>263</v>
       </c>
       <c r="J89">
         <v>9.8039215686274499</v>
       </c>
-    </row>
-    <row r="90" spans="6:10" ht="116" x14ac:dyDescent="0.35">
+      <c r="K89" s="12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="90" spans="6:11" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F90" s="4" t="s">
-        <v>210</v>
+        <v>809</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="J90">
         <v>9.3457943925233593</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -5267,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="B65" zoomScale="84" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5293,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>2</v>
@@ -5305,14 +6163,16 @@
         <v>32</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5329,142 +6189,172 @@
         <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>212</v>
+        <v>862</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
       <c r="I2">
         <v>10.294117647058799</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F3" s="4" t="s">
-        <v>214</v>
+        <v>863</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>272</v>
+        <v>186</v>
       </c>
       <c r="I3">
         <v>4.6875</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J3" s="12" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="F4" s="4" t="s">
-        <v>216</v>
+        <v>864</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="I4">
         <v>5.2631578947368398</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F5" s="4" t="s">
-        <v>381</v>
+        <v>866</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>872</v>
+        <v>672</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>873</v>
+        <v>673</v>
       </c>
       <c r="I5">
         <v>10.7692</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J5" s="12" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F6" s="4" t="s">
-        <v>218</v>
+        <v>865</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="I6">
         <v>9.0909090909090899</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F7" s="4" t="s">
-        <v>219</v>
+        <v>867</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>221</v>
+        <v>157</v>
       </c>
       <c r="I7">
         <v>1.6949152542372801</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="12" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F8" s="4" t="s">
-        <v>222</v>
+        <v>868</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="I8">
         <v>8.6956521739130395</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="F9" s="4" t="s">
-        <v>224</v>
+        <v>869</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="I9">
         <v>10.9375</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="J9" s="12" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F10" s="4" t="s">
-        <v>226</v>
+        <v>878</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>354</v>
+        <v>268</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F11" s="4" t="s">
-        <v>228</v>
+        <v>879</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>355</v>
+        <v>269</v>
       </c>
       <c r="I11">
         <v>11.9402985074626</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="12" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>2</v>
       </c>
@@ -5472,148 +6362,178 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>230</v>
+        <v>880</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>240</v>
+        <v>163</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="I12">
         <v>13.3333333333333</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F13" s="11" t="s">
-        <v>231</v>
+        <v>881</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
       <c r="I13">
         <v>7.4626865671641696</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="12" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F14" s="11" t="s">
-        <v>232</v>
+        <v>889</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>242</v>
+        <v>165</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="I14">
         <v>8.1081081081080999</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="12" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F15" s="11" t="s">
-        <v>233</v>
+        <v>888</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>359</v>
+        <v>273</v>
       </c>
       <c r="I15">
         <v>12.3287671232876</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="12" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F16" s="11" t="s">
-        <v>234</v>
+        <v>887</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
       <c r="I16">
         <v>15.2777777777777</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J16" s="12" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F17" s="11" t="s">
-        <v>235</v>
+        <v>886</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>245</v>
+        <v>168</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>361</v>
+        <v>275</v>
       </c>
       <c r="I17">
         <v>10.294117647058799</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J17" s="12" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F18" s="11" t="s">
-        <v>236</v>
+        <v>885</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>362</v>
+        <v>276</v>
       </c>
       <c r="I18">
         <v>9.5890410958904102</v>
       </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J18" s="12" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F19" s="11" t="s">
-        <v>237</v>
+        <v>884</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="I19">
         <v>9.8360655737704903</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J19" s="12" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F20" s="11" t="s">
-        <v>238</v>
+        <v>883</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>238</v>
+        <v>162</v>
       </c>
       <c r="I20">
         <v>3.84615384615384</v>
       </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="12" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" ht="116" x14ac:dyDescent="0.35">
       <c r="F21" s="11" t="s">
-        <v>239</v>
+        <v>882</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="H21" t="s">
-        <v>364</v>
+        <v>172</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>943</v>
       </c>
       <c r="I21">
         <v>10.8108108108108</v>
       </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J21" s="12" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>3</v>
       </c>
@@ -5621,654 +6541,788 @@
         <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>933</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>365</v>
+        <v>278</v>
       </c>
       <c r="I22">
         <v>14.473684210526301</v>
       </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J22" s="12" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F23" s="4" t="s">
-        <v>251</v>
+        <v>932</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>366</v>
+        <v>279</v>
       </c>
       <c r="I23">
         <v>9.2105263157894708</v>
       </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J23" s="12" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F24" s="4" t="s">
-        <v>253</v>
+        <v>931</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>375</v>
+        <v>288</v>
       </c>
       <c r="I24">
         <v>6.34920634920634</v>
       </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J24" s="12" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F25" s="4" t="s">
-        <v>53</v>
+        <v>930</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J25" s="12" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F26" s="4" t="s">
-        <v>256</v>
+        <v>929</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>367</v>
+        <v>280</v>
       </c>
       <c r="I26">
         <v>8.3333333333333304</v>
       </c>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J26" s="12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F27" s="4" t="s">
-        <v>258</v>
+        <v>928</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>368</v>
+        <v>281</v>
       </c>
       <c r="I27">
         <v>9.3333333333333304</v>
       </c>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J27" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F28" s="4" t="s">
-        <v>260</v>
+        <v>927</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="I28">
         <v>7.0422535211267601</v>
       </c>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J28" s="12" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F29" s="4" t="s">
-        <v>262</v>
+        <v>926</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>373</v>
+        <v>286</v>
       </c>
       <c r="I29">
         <v>7.0422535211267601</v>
       </c>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J29" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F30" s="4" t="s">
-        <v>264</v>
+        <v>925</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>372</v>
+        <v>285</v>
       </c>
       <c r="I30">
         <v>9.2105263157894708</v>
       </c>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J30" s="12" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F31" s="4" t="s">
-        <v>266</v>
+        <v>924</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>371</v>
+        <v>284</v>
       </c>
       <c r="I31">
         <v>10.5263157894736</v>
       </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J31" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F32" s="4" t="s">
-        <v>268</v>
+        <v>923</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>269</v>
+        <v>183</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="I32">
         <v>12.8205128205128</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="J32" s="12" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>376</v>
+        <v>289</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>377</v>
+        <v>290</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>416</v>
+        <v>922</v>
       </c>
       <c r="G34" s="27" t="s">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>708</v>
+        <v>508</v>
       </c>
       <c r="I34">
         <v>11.428000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J34" s="12" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F35" s="4" t="s">
-        <v>417</v>
+        <v>921</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>576</v>
+        <v>376</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>731</v>
+        <v>531</v>
       </c>
       <c r="I35">
         <v>8.9552238805970106</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J35" s="12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F36" s="4" t="s">
-        <v>418</v>
+        <v>920</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>577</v>
+        <v>377</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>732</v>
+        <v>532</v>
       </c>
       <c r="I36">
         <v>9.0909090909090899</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J36" s="12" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F37" s="4" t="s">
-        <v>419</v>
+        <v>919</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>578</v>
+        <v>378</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="I37">
         <v>12.162162162162099</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="J37" s="12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F38" s="4" t="s">
-        <v>420</v>
+        <v>918</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>734</v>
+        <v>534</v>
       </c>
       <c r="I38">
         <v>1.9607843137254899</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J38" s="12" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F39" s="4" t="s">
-        <v>421</v>
+        <v>917</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="I39">
         <v>12.9870129870129</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J39" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="116" x14ac:dyDescent="0.35">
       <c r="F40" s="26" t="s">
-        <v>422</v>
+        <v>916</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>581</v>
+        <v>381</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>736</v>
+        <v>536</v>
       </c>
       <c r="I40">
         <v>15.714285714285699</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J40" s="12" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F41" s="4" t="s">
-        <v>423</v>
+        <v>915</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>737</v>
+        <v>537</v>
       </c>
       <c r="I41">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J41" s="12" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F42" s="4" t="s">
-        <v>424</v>
+        <v>914</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>738</v>
+        <v>538</v>
       </c>
       <c r="I42">
         <v>11.1111111111111</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J42" s="12" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F43" s="4" t="s">
-        <v>425</v>
+        <v>913</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>584</v>
+        <v>384</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>739</v>
+        <v>539</v>
       </c>
       <c r="I43">
         <v>10.714285714285699</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="J43" s="12" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F44" s="4" t="s">
-        <v>426</v>
+        <v>912</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>585</v>
+        <v>385</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="I44">
         <v>4.4776119402985</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J44" s="12" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>551</v>
+        <v>373</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>553</v>
+        <v>911</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>586</v>
+        <v>386</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>741</v>
+        <v>541</v>
       </c>
       <c r="I45">
         <v>14.545454545454501</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="J45" s="12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F46" s="4" t="s">
-        <v>554</v>
+        <v>910</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>587</v>
+        <v>387</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>742</v>
+        <v>542</v>
       </c>
       <c r="I46">
         <v>11.764705882352899</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="J46" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F47" s="4" t="s">
-        <v>555</v>
+        <v>909</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>588</v>
+        <v>388</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>743</v>
+        <v>543</v>
       </c>
       <c r="I47">
         <v>9.8039215686274499</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J47" s="12" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F48" s="4" t="s">
-        <v>556</v>
+        <v>908</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>589</v>
+        <v>389</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>744</v>
+        <v>544</v>
       </c>
       <c r="I48">
         <v>8.3333333333333304</v>
       </c>
-    </row>
-    <row r="49" spans="3:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="J48" s="12" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F49" s="4" t="s">
-        <v>557</v>
+        <v>906</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>745</v>
+        <v>545</v>
       </c>
       <c r="I49">
         <v>11.320754716981099</v>
       </c>
-    </row>
-    <row r="50" spans="3:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="J49" s="12" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F50" s="4" t="s">
-        <v>558</v>
+        <v>907</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>591</v>
+        <v>391</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>746</v>
+        <v>546</v>
       </c>
       <c r="I50">
         <v>12.068965517241301</v>
       </c>
-    </row>
-    <row r="51" spans="3:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J50" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F51" s="4" t="s">
-        <v>559</v>
+        <v>905</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>592</v>
+        <v>392</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>747</v>
+        <v>547</v>
       </c>
       <c r="I51">
         <v>10.1694915254237</v>
       </c>
-    </row>
-    <row r="52" spans="3:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J51" s="12" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F52" s="4" t="s">
-        <v>560</v>
+        <v>904</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>593</v>
+        <v>393</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>748</v>
+        <v>548</v>
       </c>
       <c r="I52">
         <v>18.181818181818102</v>
       </c>
-    </row>
-    <row r="53" spans="3:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J52" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F53" s="4" t="s">
-        <v>561</v>
+        <v>903</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>594</v>
+        <v>394</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>749</v>
+        <v>549</v>
       </c>
       <c r="I53">
         <v>13.4615384615384</v>
       </c>
-    </row>
-    <row r="54" spans="3:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J53" s="25" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F54" s="4" t="s">
-        <v>562</v>
+        <v>902</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>595</v>
+        <v>395</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="I54">
         <v>10.714285714285699</v>
       </c>
-    </row>
-    <row r="55" spans="3:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J54" s="12" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F55" s="4" t="s">
-        <v>563</v>
+        <v>901</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>596</v>
+        <v>396</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>751</v>
+        <v>551</v>
       </c>
       <c r="I55">
         <v>10.344827586206801</v>
       </c>
-    </row>
-    <row r="57" spans="3:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J55" s="12" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="E57" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="H57" s="22" t="s">
         <v>552</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>752</v>
       </c>
       <c r="I57">
         <v>6.5789473684210504</v>
       </c>
-    </row>
-    <row r="58" spans="3:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J57" s="12" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F58" s="4" t="s">
-        <v>565</v>
+        <v>899</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>710</v>
+        <v>510</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>753</v>
+        <v>553</v>
       </c>
       <c r="I58">
         <v>11.4285714285714</v>
       </c>
-    </row>
-    <row r="59" spans="3:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="J58" t="e">
+        <f>-term.”
+                                                                                                                                                                                                                                                                “We’re talking about the future of the patient care model,” he said. “What we’re talking about is not only the future of the patient care model, but the</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" ht="116" x14ac:dyDescent="0.35">
       <c r="F59" s="4" t="s">
-        <v>566</v>
+        <v>898</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>754</v>
+        <v>554</v>
       </c>
       <c r="I59">
         <v>10.389610389610301</v>
       </c>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="J59" t="str">
+        <f>H61</f>
+        <v>that', 'like', 'loss', 'patients'</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F60" s="4" t="s">
-        <v>567</v>
+        <v>897</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>712</v>
+        <v>512</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>755</v>
+        <v>555</v>
       </c>
       <c r="I60">
         <v>12.9870129870129</v>
       </c>
-    </row>
-    <row r="61" spans="3:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J60" s="12" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F61" s="4" t="s">
-        <v>568</v>
+        <v>896</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>713</v>
+        <v>513</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>756</v>
+        <v>556</v>
       </c>
       <c r="I61">
         <v>5.71428571428571</v>
       </c>
-    </row>
-    <row r="62" spans="3:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J61" s="12" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F62" s="4" t="s">
-        <v>569</v>
+        <v>895</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>714</v>
+        <v>514</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>757</v>
+        <v>557</v>
       </c>
       <c r="I62">
         <v>13.8888888888888</v>
       </c>
-    </row>
-    <row r="63" spans="3:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J62" s="12" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F63" s="4" t="s">
-        <v>570</v>
+        <v>894</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>715</v>
+        <v>515</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>758</v>
+        <v>558</v>
       </c>
       <c r="I63">
         <v>10.8108108108108</v>
       </c>
-    </row>
-    <row r="64" spans="3:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J63" s="12" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="203" x14ac:dyDescent="0.35">
       <c r="F64" s="4" t="s">
-        <v>571</v>
+        <v>893</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>716</v>
+        <v>516</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>759</v>
+        <v>559</v>
       </c>
       <c r="I64">
         <v>7.59493670886076</v>
       </c>
-    </row>
-    <row r="65" spans="6:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J64" s="12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F65" s="4" t="s">
-        <v>572</v>
+        <v>892</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>717</v>
+        <v>517</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="I65">
         <v>5.8823529411764701</v>
       </c>
     </row>
-    <row r="66" spans="6:9" ht="87" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:10" ht="87" x14ac:dyDescent="0.35">
       <c r="F66" s="4" t="s">
-        <v>573</v>
+        <v>891</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>718</v>
+        <v>518</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>761</v>
+        <v>561</v>
       </c>
       <c r="I66">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="67" spans="6:9" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="J66" t="str">
+        <f>H66</f>
+        <v>flu', 'long', 'a', 'the'</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F67" s="4" t="s">
-        <v>574</v>
+        <v>890</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>719</v>
+        <v>519</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>762</v>
+        <v>562</v>
       </c>
       <c r="I67">
         <v>9.5890410958904102</v>
+      </c>
+      <c r="J67" t="b">
+        <f>Sheet2!I69=H68</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6281,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6293,7 +7347,7 @@
     <col min="8" max="8" width="46.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6304,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>2</v>
@@ -6316,227 +7370,230 @@
         <v>32</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>270</v>
+        <v>184</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+        <v>291</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>404</v>
+        <v>316</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>427</v>
+        <v>990</v>
       </c>
       <c r="G2" t="s">
-        <v>597</v>
+        <v>397</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>764</v>
+        <v>564</v>
       </c>
       <c r="I2">
         <v>8.9887640449438209</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="290" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="F3" s="22" t="s">
-        <v>428</v>
+        <v>991</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>598</v>
+        <v>398</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>763</v>
+        <v>563</v>
       </c>
       <c r="I3">
         <v>7.1428571428571397</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="145" x14ac:dyDescent="0.35">
       <c r="F4" s="22" t="s">
-        <v>429</v>
+        <v>992</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>765</v>
+        <v>565</v>
       </c>
       <c r="I4">
         <v>2.5974025974025898</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F5" s="22" t="s">
-        <v>430</v>
+        <v>993</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>766</v>
+        <v>566</v>
       </c>
       <c r="I5">
         <v>8.7912087912087902</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F6" s="22" t="s">
-        <v>431</v>
+        <v>994</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>767</v>
+        <v>567</v>
       </c>
       <c r="I6">
         <v>12.087912087912001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="261" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="261" x14ac:dyDescent="0.35">
       <c r="F7" s="22" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>602</v>
+        <v>402</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>768</v>
+        <v>568</v>
       </c>
       <c r="I7">
         <v>10.344827586206801</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="290" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="290" x14ac:dyDescent="0.35">
       <c r="F8" s="22" t="s">
-        <v>433</v>
+        <v>995</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>603</v>
+        <v>403</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>769</v>
+        <v>569</v>
       </c>
       <c r="I8">
         <v>13.186813186813101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F9" s="22" t="s">
-        <v>434</v>
+        <v>996</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>604</v>
+        <v>404</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>770</v>
+        <v>570</v>
       </c>
       <c r="I9">
         <v>8.0459770114942497</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="304.5" x14ac:dyDescent="0.35">
       <c r="F10" s="22" t="s">
-        <v>435</v>
+        <v>997</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>605</v>
+        <v>405</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>771</v>
+        <v>571</v>
       </c>
       <c r="I10">
         <v>8.7912087912087902</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="232" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="232" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>405</v>
+        <v>317</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>436</v>
+        <v>998</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>606</v>
+        <v>406</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>772</v>
+        <v>572</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="203" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="203" x14ac:dyDescent="0.35">
       <c r="F13" s="22" t="s">
-        <v>437</v>
+        <v>999</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>607</v>
+        <v>407</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>773</v>
+        <v>573</v>
       </c>
       <c r="I13">
         <v>13.157894736842101</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F14" s="22" t="s">
-        <v>438</v>
+        <v>329</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>608</v>
+        <v>408</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>774</v>
+        <v>574</v>
       </c>
       <c r="I14">
         <v>10.9890109890109</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F15" s="22" t="s">
-        <v>439</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>609</v>
+        <v>409</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="I15">
         <v>10.344827586206801</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F16" s="22" t="s">
-        <v>440</v>
+        <v>1002</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>776</v>
+        <v>576</v>
       </c>
       <c r="I16">
         <v>13.636363636363599</v>
@@ -6544,13 +7601,13 @@
     </row>
     <row r="17" spans="3:10" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F17" s="22" t="s">
-        <v>441</v>
+        <v>1001</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>777</v>
+        <v>577</v>
       </c>
       <c r="I17">
         <v>8.86075949367088</v>
@@ -6558,13 +7615,13 @@
     </row>
     <row r="18" spans="3:10" ht="232" x14ac:dyDescent="0.35">
       <c r="F18" s="22" t="s">
-        <v>442</v>
+        <v>330</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="I18">
         <v>12.790697674418601</v>
@@ -6572,13 +7629,13 @@
     </row>
     <row r="19" spans="3:10" ht="203" x14ac:dyDescent="0.35">
       <c r="F19" s="22" t="s">
-        <v>443</v>
+        <v>1003</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>779</v>
+        <v>579</v>
       </c>
       <c r="I19">
         <v>15.1898734177215</v>
@@ -6586,13 +7643,13 @@
     </row>
     <row r="20" spans="3:10" ht="261" x14ac:dyDescent="0.35">
       <c r="F20" s="22" t="s">
-        <v>444</v>
+        <v>1004</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>614</v>
+        <v>414</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="I20">
         <v>16.091954022988499</v>
@@ -6600,13 +7657,13 @@
     </row>
     <row r="21" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F21" s="22" t="s">
-        <v>445</v>
+        <v>1005</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>615</v>
+        <v>415</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>781</v>
+        <v>581</v>
       </c>
       <c r="I21">
         <v>6.8965517241379297</v>
@@ -6617,19 +7674,19 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>406</v>
+        <v>318</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>616</v>
+        <v>416</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>782</v>
+        <v>582</v>
       </c>
       <c r="I22">
         <v>14.736842105263101</v>
@@ -6637,13 +7694,13 @@
     </row>
     <row r="23" spans="3:10" ht="377" x14ac:dyDescent="0.35">
       <c r="F23" s="22" t="s">
-        <v>447</v>
+        <v>1006</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>617</v>
+        <v>417</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>783</v>
+        <v>583</v>
       </c>
       <c r="I23">
         <v>5.81395348837209</v>
@@ -6651,13 +7708,13 @@
     </row>
     <row r="24" spans="3:10" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F24" s="22" t="s">
-        <v>448</v>
+        <v>1007</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>618</v>
+        <v>418</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>784</v>
+        <v>584</v>
       </c>
       <c r="I24">
         <v>7.0707070707070701</v>
@@ -6665,13 +7722,13 @@
     </row>
     <row r="25" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F25" s="22" t="s">
-        <v>449</v>
+        <v>1008</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="I25">
         <v>13.9240506329113</v>
@@ -6679,13 +7736,13 @@
     </row>
     <row r="26" spans="3:10" ht="203" x14ac:dyDescent="0.35">
       <c r="F26" s="22" t="s">
-        <v>450</v>
+        <v>1009</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>786</v>
+        <v>586</v>
       </c>
       <c r="I26">
         <v>10.344827586206801</v>
@@ -6693,13 +7750,13 @@
     </row>
     <row r="27" spans="3:10" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F27" s="22" t="s">
-        <v>451</v>
+        <v>1010</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>621</v>
+        <v>421</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>787</v>
+        <v>587</v>
       </c>
       <c r="I27">
         <v>15.294117647058799</v>
@@ -6707,13 +7764,13 @@
     </row>
     <row r="28" spans="3:10" ht="232" x14ac:dyDescent="0.35">
       <c r="F28" s="22" t="s">
-        <v>452</v>
+        <v>1011</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>622</v>
+        <v>422</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>788</v>
+        <v>588</v>
       </c>
       <c r="J28">
         <v>11.578947368421</v>
@@ -6721,13 +7778,13 @@
     </row>
     <row r="29" spans="3:10" ht="174" x14ac:dyDescent="0.35">
       <c r="F29" s="22" t="s">
-        <v>453</v>
+        <v>1012</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>623</v>
+        <v>423</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>789</v>
+        <v>589</v>
       </c>
       <c r="I29">
         <v>12.345679012345601</v>
@@ -6735,13 +7792,13 @@
     </row>
     <row r="30" spans="3:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="F30" s="22" t="s">
-        <v>454</v>
+        <v>1013</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>624</v>
+        <v>424</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>790</v>
+        <v>590</v>
       </c>
       <c r="I30">
         <v>5.7971014492753596</v>
@@ -6749,13 +7806,13 @@
     </row>
     <row r="31" spans="3:10" ht="290" x14ac:dyDescent="0.35">
       <c r="F31" s="22" t="s">
-        <v>455</v>
+        <v>1014</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>791</v>
+        <v>591</v>
       </c>
       <c r="I31">
         <v>12.1951219512195</v>
@@ -6763,13 +7820,13 @@
     </row>
     <row r="32" spans="3:10" ht="290" x14ac:dyDescent="0.35">
       <c r="F32" s="22" t="s">
-        <v>456</v>
+        <v>1015</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>791</v>
+        <v>591</v>
       </c>
       <c r="I32">
         <v>12.1951219512195</v>
@@ -6780,25 +7837,25 @@
         <v>21</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>407</v>
+        <v>319</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>457</v>
+        <v>1016</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>626</v>
+        <v>426</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>792</v>
+        <v>592</v>
       </c>
       <c r="I33">
         <v>11.1111111111111</v>
@@ -6806,13 +7863,13 @@
     </row>
     <row r="34" spans="1:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F34" s="22" t="s">
-        <v>458</v>
+        <v>1017</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>793</v>
+        <v>593</v>
       </c>
       <c r="I34">
         <v>7.3684210526315699</v>
@@ -6820,13 +7877,13 @@
     </row>
     <row r="35" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F35" s="22" t="s">
-        <v>459</v>
+        <v>332</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>628</v>
+        <v>428</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="I35">
         <v>11.1111111111111</v>
@@ -6834,13 +7891,13 @@
     </row>
     <row r="36" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F36" s="22" t="s">
-        <v>460</v>
+        <v>1018</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>629</v>
+        <v>429</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="I36">
         <v>9.8765432098765409</v>
@@ -6848,13 +7905,13 @@
     </row>
     <row r="37" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F37" s="22" t="s">
-        <v>461</v>
+        <v>1019</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>630</v>
+        <v>430</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>796</v>
+        <v>596</v>
       </c>
       <c r="I37">
         <v>10.869565217391299</v>
@@ -6862,13 +7919,13 @@
     </row>
     <row r="38" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F38" s="22" t="s">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>631</v>
+        <v>431</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>796</v>
+        <v>596</v>
       </c>
       <c r="I38">
         <v>10.869565217391299</v>
@@ -6876,13 +7933,13 @@
     </row>
     <row r="39" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F39" s="22" t="s">
-        <v>463</v>
+        <v>1020</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>632</v>
+        <v>432</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>797</v>
+        <v>597</v>
       </c>
       <c r="I39">
         <v>10.465116279069701</v>
@@ -6890,13 +7947,13 @@
     </row>
     <row r="40" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F40" s="22" t="s">
-        <v>464</v>
+        <v>1021</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>632</v>
+        <v>432</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>797</v>
+        <v>597</v>
       </c>
       <c r="I40">
         <v>10.465116279069701</v>
@@ -6904,13 +7961,13 @@
     </row>
     <row r="41" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F41" s="22" t="s">
-        <v>465</v>
+        <v>1022</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>633</v>
+        <v>433</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>798</v>
+        <v>598</v>
       </c>
       <c r="I41">
         <v>10</v>
@@ -6918,13 +7975,13 @@
     </row>
     <row r="42" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F42" s="22" t="s">
-        <v>466</v>
+        <v>1023</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>634</v>
+        <v>434</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>799</v>
+        <v>599</v>
       </c>
       <c r="I42">
         <v>11.764705882352899</v>
@@ -6935,19 +7992,19 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>408</v>
+        <v>320</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>467</v>
+        <v>334</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>635</v>
+        <v>435</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="I44">
         <v>9.8214285714285694</v>
@@ -6955,13 +8012,13 @@
     </row>
     <row r="45" spans="1:9" ht="319" x14ac:dyDescent="0.35">
       <c r="F45" s="22" t="s">
-        <v>468</v>
+        <v>1024</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>636</v>
+        <v>436</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="I45">
         <v>10.6796116504854</v>
@@ -6969,13 +8026,13 @@
     </row>
     <row r="46" spans="1:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F46" s="22" t="s">
-        <v>469</v>
+        <v>1025</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>637</v>
+        <v>437</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>802</v>
+        <v>602</v>
       </c>
       <c r="I46">
         <v>10.4166666666666</v>
@@ -6983,13 +8040,13 @@
     </row>
     <row r="47" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F47" s="22" t="s">
-        <v>470</v>
+        <v>1026</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>638</v>
+        <v>438</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="I47">
         <v>7.6923076923076898</v>
@@ -6997,13 +8054,13 @@
     </row>
     <row r="48" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F48" s="22" t="s">
-        <v>471</v>
+        <v>1027</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>639</v>
+        <v>439</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>804</v>
+        <v>604</v>
       </c>
       <c r="I48">
         <v>5.31914893617021</v>
@@ -7011,13 +8068,13 @@
     </row>
     <row r="49" spans="3:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F49" s="22" t="s">
-        <v>472</v>
+        <v>1028</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>805</v>
+        <v>605</v>
       </c>
       <c r="I49">
         <v>2.9411764705882302</v>
@@ -7025,13 +8082,13 @@
     </row>
     <row r="50" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F50" s="22" t="s">
-        <v>473</v>
+        <v>335</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>641</v>
+        <v>441</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>806</v>
+        <v>606</v>
       </c>
       <c r="I50">
         <v>7.1428571428571397</v>
@@ -7039,13 +8096,13 @@
     </row>
     <row r="51" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F51" s="22" t="s">
-        <v>474</v>
+        <v>1029</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>642</v>
+        <v>442</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>813</v>
+        <v>613</v>
       </c>
       <c r="I51">
         <v>10.784313725490099</v>
@@ -7053,13 +8110,13 @@
     </row>
     <row r="52" spans="3:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F52" s="22" t="s">
-        <v>475</v>
+        <v>1030</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>643</v>
+        <v>443</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>807</v>
+        <v>607</v>
       </c>
       <c r="I52">
         <v>13.1313131313131</v>
@@ -7067,13 +8124,13 @@
     </row>
     <row r="53" spans="3:9" ht="304.5" x14ac:dyDescent="0.35">
       <c r="F53" s="22" t="s">
-        <v>476</v>
+        <v>336</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>808</v>
+        <v>608</v>
       </c>
       <c r="I53">
         <v>10.576923076923</v>
@@ -7081,13 +8138,13 @@
     </row>
     <row r="54" spans="3:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F54" s="22" t="s">
-        <v>477</v>
+        <v>1031</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>645</v>
+        <v>445</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>808</v>
+        <v>608</v>
       </c>
       <c r="I54">
         <v>10.576923076923</v>
@@ -7098,19 +8155,19 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>478</v>
+        <v>1032</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>646</v>
+        <v>446</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>860</v>
+        <v>660</v>
       </c>
       <c r="I56">
         <v>8.4740000000000002</v>
@@ -7118,13 +8175,13 @@
     </row>
     <row r="57" spans="3:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F57" s="22" t="s">
-        <v>479</v>
+        <v>1033</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>647</v>
+        <v>447</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>809</v>
+        <v>609</v>
       </c>
       <c r="I57">
         <v>9.4736842105263097</v>
@@ -7132,13 +8189,13 @@
     </row>
     <row r="58" spans="3:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F58" s="22" t="s">
-        <v>480</v>
+        <v>1034</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>648</v>
+        <v>448</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>810</v>
+        <v>610</v>
       </c>
       <c r="I58">
         <v>3.6585365853658498</v>
@@ -7146,11 +8203,11 @@
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.35">
       <c r="F59" s="22" t="s">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="22" t="s">
-        <v>811</v>
+        <v>611</v>
       </c>
       <c r="I59">
         <v>6.9767441860465098</v>
@@ -7158,13 +8215,13 @@
     </row>
     <row r="60" spans="3:9" ht="145" x14ac:dyDescent="0.35">
       <c r="F60" s="22" t="s">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>649</v>
+        <v>449</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>815</v>
+        <v>615</v>
       </c>
       <c r="I60">
         <v>9.8360655737704903</v>
@@ -7172,13 +8229,13 @@
     </row>
     <row r="61" spans="3:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F61" s="22" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="H61" s="22" t="s">
-        <v>814</v>
+        <v>614</v>
       </c>
       <c r="I61">
         <v>5.55555555555555</v>
@@ -7186,13 +8243,13 @@
     </row>
     <row r="62" spans="3:9" ht="145" x14ac:dyDescent="0.35">
       <c r="F62" s="22" t="s">
-        <v>484</v>
+        <v>340</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>651</v>
+        <v>451</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>812</v>
+        <v>612</v>
       </c>
       <c r="I62">
         <v>4.4943820224719104</v>
@@ -7200,13 +8257,13 @@
     </row>
     <row r="63" spans="3:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F63" s="22" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>652</v>
+        <v>452</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>816</v>
+        <v>616</v>
       </c>
       <c r="I63">
         <v>5.9701492537313401</v>
@@ -7214,13 +8271,13 @@
     </row>
     <row r="64" spans="3:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F64" s="22" t="s">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>653</v>
+        <v>453</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>817</v>
+        <v>617</v>
       </c>
       <c r="I64">
         <v>4.9180327868852398</v>
@@ -7228,13 +8285,13 @@
     </row>
     <row r="65" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F65" s="22" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>654</v>
+        <v>454</v>
       </c>
       <c r="H65" s="22" t="s">
-        <v>818</v>
+        <v>618</v>
       </c>
       <c r="I65">
         <v>9.3333333333333304</v>
@@ -7242,13 +8299,13 @@
     </row>
     <row r="66" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F66" s="22" t="s">
-        <v>488</v>
+        <v>344</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>654</v>
+        <v>454</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>818</v>
+        <v>618</v>
       </c>
       <c r="I66">
         <v>9.3333333333333304</v>
@@ -7256,28 +8313,28 @@
     </row>
     <row r="67" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B67" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>655</v>
+        <v>455</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>819</v>
+        <v>619</v>
       </c>
       <c r="I67">
         <v>10.126582278480999</v>
@@ -7285,13 +8342,13 @@
     </row>
     <row r="68" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F68" s="22" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="H68" s="22" t="s">
-        <v>820</v>
+        <v>620</v>
       </c>
       <c r="I68">
         <v>6.5217391304347796</v>
@@ -7299,13 +8356,13 @@
     </row>
     <row r="69" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F69" s="22" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>657</v>
+        <v>457</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>821</v>
+        <v>621</v>
       </c>
       <c r="I69">
         <v>12.9411764705882</v>
@@ -7313,13 +8370,13 @@
     </row>
     <row r="70" spans="1:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F70" s="22" t="s">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>658</v>
+        <v>458</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>822</v>
+        <v>622</v>
       </c>
       <c r="I70">
         <v>13.157894736842101</v>
@@ -7327,13 +8384,13 @@
     </row>
     <row r="71" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F71" s="22" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>659</v>
+        <v>459</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>823</v>
+        <v>623</v>
       </c>
       <c r="I71">
         <v>6.25</v>
@@ -7341,13 +8398,13 @@
     </row>
     <row r="72" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F72" s="28" t="s">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>661</v>
+        <v>461</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>824</v>
+        <v>624</v>
       </c>
       <c r="I72">
         <v>11.6279069767441</v>
@@ -7355,13 +8412,13 @@
     </row>
     <row r="73" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F73" s="22" t="s">
-        <v>494</v>
+        <v>350</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>662</v>
+        <v>462</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>825</v>
+        <v>625</v>
       </c>
       <c r="I73">
         <v>8.86075949367088</v>
@@ -7369,13 +8426,13 @@
     </row>
     <row r="74" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F74" s="22" t="s">
-        <v>495</v>
+        <v>351</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>663</v>
+        <v>463</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>826</v>
+        <v>626</v>
       </c>
       <c r="I74">
         <v>6.9767441860465098</v>
@@ -7383,13 +8440,13 @@
     </row>
     <row r="75" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F75" s="22" t="s">
-        <v>496</v>
+        <v>352</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>664</v>
+        <v>464</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>827</v>
+        <v>627</v>
       </c>
       <c r="I75">
         <v>7.6086956521739104</v>
@@ -7397,13 +8454,13 @@
     </row>
     <row r="76" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F76" s="22" t="s">
-        <v>497</v>
+        <v>353</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>665</v>
+        <v>465</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>828</v>
+        <v>628</v>
       </c>
       <c r="I76">
         <v>8.0459770114942497</v>
@@ -7411,13 +8468,13 @@
     </row>
     <row r="77" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F77" s="22" t="s">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>666</v>
+        <v>466</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>829</v>
+        <v>629</v>
       </c>
       <c r="I77">
         <v>9.1954022988505706</v>
@@ -7428,19 +8485,19 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>397</v>
+        <v>309</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>411</v>
+        <v>323</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>499</v>
+        <v>355</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>830</v>
+        <v>630</v>
       </c>
       <c r="I78">
         <v>5.8252427184466002</v>
@@ -7448,13 +8505,13 @@
     </row>
     <row r="79" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F79" s="22" t="s">
-        <v>500</v>
+        <v>356</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>668</v>
+        <v>468</v>
       </c>
       <c r="H79" s="22" t="s">
-        <v>831</v>
+        <v>631</v>
       </c>
       <c r="I79">
         <v>5.0505050505050502</v>
@@ -7462,13 +8519,13 @@
     </row>
     <row r="80" spans="1:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F80" s="22" t="s">
-        <v>501</v>
+        <v>357</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>669</v>
+        <v>469</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>832</v>
+        <v>632</v>
       </c>
       <c r="I80">
         <v>3.1914893617021201</v>
@@ -7476,19 +8533,19 @@
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.35">
       <c r="F81" s="22" t="s">
-        <v>502</v>
+        <v>358</v>
       </c>
       <c r="G81" s="27"/>
     </row>
     <row r="82" spans="3:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F82" s="22" t="s">
-        <v>503</v>
+        <v>359</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>833</v>
+        <v>633</v>
       </c>
       <c r="I82">
         <v>8.5365853658536501</v>
@@ -7496,13 +8553,13 @@
     </row>
     <row r="83" spans="3:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F83" s="22" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>671</v>
+        <v>471</v>
       </c>
       <c r="H83" s="22" t="s">
-        <v>834</v>
+        <v>634</v>
       </c>
       <c r="I83">
         <v>6.3157894736842097</v>
@@ -7510,13 +8567,13 @@
     </row>
     <row r="84" spans="3:9" ht="319" x14ac:dyDescent="0.35">
       <c r="F84" s="22" t="s">
-        <v>505</v>
+        <v>361</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>672</v>
+        <v>472</v>
       </c>
       <c r="H84" s="22" t="s">
-        <v>835</v>
+        <v>635</v>
       </c>
       <c r="I84">
         <v>5</v>
@@ -7524,13 +8581,13 @@
     </row>
     <row r="85" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F85" s="22" t="s">
-        <v>506</v>
+        <v>362</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>673</v>
+        <v>473</v>
       </c>
       <c r="H85" s="22" t="s">
-        <v>836</v>
+        <v>636</v>
       </c>
       <c r="I85">
         <v>10.752688172042999</v>
@@ -7538,13 +8595,13 @@
     </row>
     <row r="86" spans="3:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F86" s="22" t="s">
-        <v>507</v>
+        <v>363</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>674</v>
+        <v>474</v>
       </c>
       <c r="H86" s="22" t="s">
-        <v>837</v>
+        <v>637</v>
       </c>
       <c r="I86">
         <v>8</v>
@@ -7552,13 +8609,13 @@
     </row>
     <row r="87" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F87" s="22" t="s">
-        <v>508</v>
+        <v>1035</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="H87" s="22" t="s">
-        <v>838</v>
+        <v>638</v>
       </c>
       <c r="I87">
         <v>8.4210526315789398</v>
@@ -7569,19 +8626,19 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>398</v>
+        <v>310</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>412</v>
+        <v>324</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>508</v>
+        <v>1035</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>676</v>
+        <v>476</v>
       </c>
       <c r="H89" s="22" t="s">
-        <v>839</v>
+        <v>639</v>
       </c>
       <c r="I89">
         <v>6</v>
@@ -7589,13 +8646,13 @@
     </row>
     <row r="90" spans="3:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F90" s="22" t="s">
-        <v>509</v>
+        <v>1036</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>677</v>
+        <v>477</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="I90">
         <v>6.9767441860465098</v>
@@ -7603,13 +8660,13 @@
     </row>
     <row r="91" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F91" s="22" t="s">
-        <v>510</v>
+        <v>1037</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>678</v>
+        <v>478</v>
       </c>
       <c r="H91" s="22" t="s">
-        <v>841</v>
+        <v>641</v>
       </c>
       <c r="I91">
         <v>6.25</v>
@@ -7617,13 +8674,13 @@
     </row>
     <row r="92" spans="3:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F92" s="22" t="s">
-        <v>511</v>
+        <v>1038</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>679</v>
+        <v>479</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>842</v>
+        <v>642</v>
       </c>
       <c r="I92">
         <v>6.6666666666666599</v>
@@ -7631,13 +8688,13 @@
     </row>
     <row r="93" spans="3:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F93" s="22" t="s">
-        <v>512</v>
+        <v>1039</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="H93" s="22" t="s">
-        <v>842</v>
+        <v>642</v>
       </c>
       <c r="I93">
         <v>6.6666666666666599</v>
@@ -7645,13 +8702,13 @@
     </row>
     <row r="94" spans="3:9" ht="304.5" x14ac:dyDescent="0.35">
       <c r="F94" s="22" t="s">
-        <v>513</v>
+        <v>1040</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
       <c r="H94" s="22" t="s">
-        <v>843</v>
+        <v>643</v>
       </c>
       <c r="I94">
         <v>5.1546391752577296</v>
@@ -7659,21 +8716,21 @@
     </row>
     <row r="95" spans="3:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F95" s="22" t="s">
-        <v>514</v>
+        <v>1041</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>682</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="3:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F96" s="22" t="s">
-        <v>515</v>
+        <v>364</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>683</v>
+        <v>483</v>
       </c>
       <c r="H96" s="22" t="s">
-        <v>844</v>
+        <v>644</v>
       </c>
       <c r="I96">
         <v>5.4054054054053999</v>
@@ -7681,13 +8738,13 @@
     </row>
     <row r="97" spans="1:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F97" s="22" t="s">
-        <v>516</v>
+        <v>1042</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>684</v>
+        <v>484</v>
       </c>
       <c r="H97" s="22" t="s">
-        <v>845</v>
+        <v>645</v>
       </c>
       <c r="I97">
         <v>4.0540540540540499</v>
@@ -7695,13 +8752,13 @@
     </row>
     <row r="98" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F98" s="22" t="s">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>685</v>
+        <v>485</v>
       </c>
       <c r="H98" s="22" t="s">
-        <v>845</v>
+        <v>645</v>
       </c>
       <c r="I98">
         <v>4.0540540540540499</v>
@@ -7709,13 +8766,13 @@
     </row>
     <row r="99" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F99" s="22" t="s">
-        <v>518</v>
+        <v>1043</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>686</v>
+        <v>486</v>
       </c>
       <c r="H99" s="22" t="s">
-        <v>846</v>
+        <v>646</v>
       </c>
       <c r="I99">
         <v>7.2289156626505999</v>
@@ -7723,28 +8780,28 @@
     </row>
     <row r="100" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>313</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>312</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>519</v>
+        <v>1044</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>687</v>
+        <v>487</v>
       </c>
       <c r="H100" s="22" t="s">
-        <v>847</v>
+        <v>647</v>
       </c>
       <c r="I100">
         <v>8.1632653061224492</v>
@@ -7752,13 +8809,13 @@
     </row>
     <row r="101" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F101" s="22" t="s">
-        <v>520</v>
+        <v>1045</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>688</v>
+        <v>488</v>
       </c>
       <c r="H101" s="22" t="s">
-        <v>848</v>
+        <v>648</v>
       </c>
       <c r="I101">
         <v>11.1111111111111</v>
@@ -7766,13 +8823,13 @@
     </row>
     <row r="102" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="F102" s="22" t="s">
-        <v>521</v>
+        <v>1046</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>689</v>
+        <v>489</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>849</v>
+        <v>649</v>
       </c>
       <c r="I102">
         <v>8.5714285714285694</v>
@@ -7780,13 +8837,13 @@
     </row>
     <row r="103" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F103" s="22" t="s">
-        <v>522</v>
+        <v>366</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="H103" s="22" t="s">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="I103">
         <v>13.4020618556701</v>
@@ -7794,13 +8851,13 @@
     </row>
     <row r="104" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F104" s="22" t="s">
-        <v>523</v>
+        <v>1047</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>691</v>
+        <v>491</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>851</v>
+        <v>651</v>
       </c>
       <c r="I104">
         <v>7.8431372549019596</v>
@@ -7808,13 +8865,13 @@
     </row>
     <row r="105" spans="1:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F105" s="22" t="s">
-        <v>524</v>
+        <v>1048</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>692</v>
+        <v>492</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>852</v>
+        <v>652</v>
       </c>
       <c r="I105">
         <v>9.9009900990098991</v>
@@ -7822,13 +8879,13 @@
     </row>
     <row r="106" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F106" s="22" t="s">
-        <v>525</v>
+        <v>1049</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>693</v>
+        <v>493</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>853</v>
+        <v>653</v>
       </c>
       <c r="I106">
         <v>10.869565217391299</v>
@@ -7836,13 +8893,13 @@
     </row>
     <row r="107" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F107" s="22" t="s">
-        <v>526</v>
+        <v>1050</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>694</v>
+        <v>494</v>
       </c>
       <c r="H107" s="22" t="s">
-        <v>854</v>
+        <v>654</v>
       </c>
       <c r="I107">
         <v>10</v>
@@ -7850,13 +8907,13 @@
     </row>
     <row r="108" spans="1:9" ht="319" x14ac:dyDescent="0.35">
       <c r="F108" s="22" t="s">
-        <v>527</v>
+        <v>367</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>695</v>
+        <v>495</v>
       </c>
       <c r="H108" s="22" t="s">
-        <v>855</v>
+        <v>655</v>
       </c>
       <c r="I108">
         <v>9.2783505154639094</v>
@@ -7864,13 +8921,13 @@
     </row>
     <row r="109" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F109" s="22" t="s">
-        <v>528</v>
+        <v>1051</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>696</v>
+        <v>496</v>
       </c>
       <c r="H109" s="22" t="s">
-        <v>856</v>
+        <v>656</v>
       </c>
       <c r="I109">
         <v>10.8910891089108</v>
@@ -7881,30 +8938,30 @@
         <v>2</v>
       </c>
       <c r="D111" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>414</v>
+        <v>326</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>529</v>
+        <v>1052</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>697</v>
+        <v>497</v>
       </c>
       <c r="H111" s="22" t="s">
-        <v>857</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F112" s="22" t="s">
-        <v>530</v>
+        <v>1053</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>698</v>
+        <v>498</v>
       </c>
       <c r="H112" s="22" t="s">
-        <v>858</v>
+        <v>658</v>
       </c>
       <c r="I112">
         <v>15.5555555555555</v>
@@ -7912,13 +8969,13 @@
     </row>
     <row r="113" spans="3:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F113" s="22" t="s">
-        <v>531</v>
+        <v>1054</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="H113" s="22" t="s">
-        <v>859</v>
+        <v>659</v>
       </c>
       <c r="I113">
         <v>10</v>
@@ -7926,13 +8983,13 @@
     </row>
     <row r="114" spans="3:9" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F114" s="22" t="s">
-        <v>532</v>
+        <v>1055</v>
       </c>
       <c r="G114" s="25" t="s">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H114" s="22" t="s">
-        <v>861</v>
+        <v>661</v>
       </c>
       <c r="I114">
         <v>16.049382000000001</v>
@@ -7940,13 +8997,13 @@
     </row>
     <row r="115" spans="3:9" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F115" s="22" t="s">
-        <v>533</v>
+        <v>1056</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>701</v>
+        <v>501</v>
       </c>
       <c r="H115" s="22" t="s">
-        <v>862</v>
+        <v>662</v>
       </c>
       <c r="I115">
         <v>11.25</v>
@@ -7954,13 +9011,13 @@
     </row>
     <row r="116" spans="3:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F116" s="22" t="s">
-        <v>534</v>
+        <v>1057</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>702</v>
+        <v>502</v>
       </c>
       <c r="H116" s="22" t="s">
-        <v>863</v>
+        <v>663</v>
       </c>
       <c r="I116">
         <v>12.820499999999999</v>
@@ -7968,29 +9025,29 @@
     </row>
     <row r="117" spans="3:9" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F117" s="22" t="s">
-        <v>535</v>
+        <v>1058</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>703</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="3:9" ht="409.5" x14ac:dyDescent="0.35">
       <c r="F118" s="22" t="s">
-        <v>536</v>
+        <v>1059</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>704</v>
+        <v>504</v>
       </c>
     </row>
     <row r="119" spans="3:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F119" s="22" t="s">
-        <v>537</v>
+        <v>1060</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>705</v>
+        <v>505</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>864</v>
+        <v>664</v>
       </c>
       <c r="I119">
         <v>11.594200000000001</v>
@@ -7998,13 +9055,13 @@
     </row>
     <row r="120" spans="3:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F120" s="22" t="s">
-        <v>538</v>
+        <v>1061</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>706</v>
+        <v>506</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>865</v>
+        <v>665</v>
       </c>
       <c r="I120">
         <v>15.85365</v>
@@ -8012,10 +9069,10 @@
     </row>
     <row r="121" spans="3:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F121" s="22" t="s">
-        <v>539</v>
+        <v>1062</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>707</v>
+        <v>507</v>
       </c>
     </row>
     <row r="122" spans="3:9" ht="304.5" x14ac:dyDescent="0.35">
@@ -8023,19 +9080,19 @@
         <v>3</v>
       </c>
       <c r="D122" t="s">
-        <v>403</v>
+        <v>315</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>415</v>
+        <v>327</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>540</v>
+        <v>1063</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="H122" s="22" t="s">
-        <v>866</v>
+        <v>666</v>
       </c>
       <c r="I122">
         <v>8.7378640000000001</v>
@@ -8043,29 +9100,29 @@
     </row>
     <row r="123" spans="3:9" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F123" s="22" t="s">
-        <v>541</v>
+        <v>1064</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>721</v>
+        <v>521</v>
       </c>
     </row>
     <row r="124" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F124" s="22" t="s">
-        <v>542</v>
+        <v>368</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>722</v>
+        <v>522</v>
       </c>
     </row>
     <row r="125" spans="3:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F125" s="22" t="s">
-        <v>543</v>
+        <v>1065</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>723</v>
+        <v>523</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>867</v>
+        <v>667</v>
       </c>
       <c r="I125">
         <v>9.1666659999999993</v>
@@ -8073,29 +9130,29 @@
     </row>
     <row r="126" spans="3:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F126" s="22" t="s">
-        <v>544</v>
+        <v>1066</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>724</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="3:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F127" s="22" t="s">
-        <v>545</v>
+        <v>1067</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>725</v>
+        <v>525</v>
       </c>
     </row>
     <row r="128" spans="3:9" ht="304.5" x14ac:dyDescent="0.35">
       <c r="F128" s="22" t="s">
-        <v>546</v>
+        <v>1068</v>
       </c>
       <c r="G128" s="12" t="s">
-        <v>726</v>
+        <v>526</v>
       </c>
       <c r="H128" s="22" t="s">
-        <v>868</v>
+        <v>668</v>
       </c>
       <c r="I128">
         <v>8.4033613000000003</v>
@@ -8103,13 +9160,13 @@
     </row>
     <row r="129" spans="1:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F129" s="22" t="s">
-        <v>547</v>
+        <v>369</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>727</v>
+        <v>527</v>
       </c>
       <c r="H129" s="25" t="s">
-        <v>869</v>
+        <v>669</v>
       </c>
       <c r="I129">
         <v>7.7586206799999999</v>
@@ -8117,13 +9174,13 @@
     </row>
     <row r="130" spans="1:9" ht="232" x14ac:dyDescent="0.35">
       <c r="F130" s="22" t="s">
-        <v>548</v>
+        <v>370</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>728</v>
+        <v>528</v>
       </c>
       <c r="H130" s="22" t="s">
-        <v>870</v>
+        <v>670</v>
       </c>
       <c r="I130">
         <v>8.7911999999999999</v>
@@ -8131,21 +9188,21 @@
     </row>
     <row r="131" spans="1:9" ht="290" x14ac:dyDescent="0.35">
       <c r="F131" s="22" t="s">
-        <v>549</v>
+        <v>371</v>
       </c>
       <c r="G131" s="12" t="s">
-        <v>729</v>
+        <v>529</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="261" x14ac:dyDescent="0.35">
       <c r="F132" s="22" t="s">
-        <v>550</v>
+        <v>372</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>730</v>
+        <v>530</v>
       </c>
       <c r="H132" s="22" t="s">
-        <v>871</v>
+        <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="203" x14ac:dyDescent="0.35">
@@ -8153,110 +9210,110 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>879</v>
+        <v>679</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>880</v>
+        <v>680</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>883</v>
+        <v>683</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>884</v>
+        <v>684</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>919</v>
+        <v>689</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="F134" s="22" t="s">
-        <v>885</v>
+        <v>685</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>920</v>
+        <v>690</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F135" s="22" t="s">
-        <v>886</v>
+        <v>686</v>
       </c>
       <c r="G135" s="12" t="s">
-        <v>921</v>
+        <v>691</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="275.5" x14ac:dyDescent="0.35">
       <c r="F136" s="22" t="s">
-        <v>887</v>
+        <v>1098</v>
       </c>
       <c r="G136" s="12" t="s">
-        <v>922</v>
+        <v>692</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F137" s="22" t="s">
-        <v>888</v>
+        <v>1096</v>
       </c>
       <c r="G137" s="12" t="s">
-        <v>923</v>
+        <v>693</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="203" x14ac:dyDescent="0.35">
       <c r="F138" s="22" t="s">
-        <v>889</v>
+        <v>1097</v>
       </c>
       <c r="G138" s="12" t="s">
-        <v>924</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F139" s="22" t="s">
-        <v>890</v>
+        <v>1095</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>925</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="130.5" x14ac:dyDescent="0.35">
       <c r="F140" s="22" t="s">
-        <v>891</v>
+        <v>1094</v>
       </c>
       <c r="G140" s="12" t="s">
-        <v>926</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F141" s="22" t="s">
-        <v>892</v>
+        <v>1093</v>
       </c>
       <c r="G141" s="12" t="s">
-        <v>927</v>
+        <v>697</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F142" s="22" t="s">
-        <v>893</v>
+        <v>1092</v>
       </c>
       <c r="G142" s="12" t="s">
-        <v>928</v>
+        <v>698</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="F143" s="22" t="s">
-        <v>894</v>
+        <v>1091</v>
       </c>
       <c r="G143" s="12" t="s">
-        <v>929</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F144" s="22" t="s">
-        <v>895</v>
+        <v>1090</v>
       </c>
       <c r="G144" s="12" t="s">
-        <v>930</v>
+        <v>700</v>
       </c>
     </row>
     <row r="145" spans="3:7" ht="217.5" x14ac:dyDescent="0.35">
@@ -8264,88 +9321,88 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>881</v>
+        <v>681</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>896</v>
+        <v>687</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>897</v>
+        <v>1089</v>
       </c>
       <c r="G145" s="12" t="s">
-        <v>931</v>
+        <v>701</v>
       </c>
     </row>
     <row r="146" spans="3:7" ht="87" x14ac:dyDescent="0.35">
       <c r="F146" s="22" t="s">
-        <v>898</v>
+        <v>1088</v>
       </c>
       <c r="G146" s="12" t="s">
-        <v>932</v>
+        <v>702</v>
       </c>
     </row>
     <row r="147" spans="3:7" ht="203" x14ac:dyDescent="0.35">
       <c r="F147" s="22" t="s">
-        <v>899</v>
+        <v>1087</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>933</v>
+        <v>703</v>
       </c>
     </row>
     <row r="148" spans="3:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F148" s="22" t="s">
-        <v>900</v>
+        <v>1085</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>934</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="3:7" ht="29" x14ac:dyDescent="0.35">
       <c r="F149" s="22" t="s">
-        <v>901</v>
+        <v>1086</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>935</v>
+        <v>705</v>
       </c>
     </row>
     <row r="150" spans="3:7" ht="232" x14ac:dyDescent="0.35">
       <c r="F150" s="22" t="s">
-        <v>902</v>
+        <v>1084</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>936</v>
+        <v>706</v>
       </c>
     </row>
     <row r="151" spans="3:7" ht="174" x14ac:dyDescent="0.35">
       <c r="F151" s="22" t="s">
-        <v>903</v>
+        <v>1083</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>937</v>
+        <v>707</v>
       </c>
     </row>
     <row r="152" spans="3:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="F152" s="22" t="s">
-        <v>904</v>
+        <v>1082</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>938</v>
+        <v>708</v>
       </c>
     </row>
     <row r="153" spans="3:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F153" s="22" t="s">
-        <v>905</v>
+        <v>1081</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>939</v>
+        <v>709</v>
       </c>
     </row>
     <row r="154" spans="3:7" ht="261" x14ac:dyDescent="0.35">
       <c r="F154" s="22" t="s">
-        <v>906</v>
+        <v>1080</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>940</v>
+        <v>710</v>
       </c>
     </row>
     <row r="155" spans="3:7" ht="174" x14ac:dyDescent="0.35">
@@ -8353,96 +9410,96 @@
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>882</v>
+        <v>682</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>907</v>
+        <v>688</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>908</v>
+        <v>1079</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>941</v>
+        <v>711</v>
       </c>
     </row>
     <row r="156" spans="3:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F156" s="22" t="s">
-        <v>909</v>
+        <v>1078</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>942</v>
+        <v>712</v>
       </c>
     </row>
     <row r="157" spans="3:7" ht="203" x14ac:dyDescent="0.35">
       <c r="F157" s="22" t="s">
-        <v>910</v>
+        <v>1077</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>943</v>
+        <v>713</v>
       </c>
     </row>
     <row r="158" spans="3:7" ht="217.5" x14ac:dyDescent="0.35">
       <c r="F158" s="22" t="s">
-        <v>911</v>
+        <v>1076</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>944</v>
+        <v>714</v>
       </c>
     </row>
     <row r="159" spans="3:7" ht="232" x14ac:dyDescent="0.35">
       <c r="F159" s="22" t="s">
-        <v>912</v>
+        <v>1075</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>945</v>
+        <v>715</v>
       </c>
     </row>
     <row r="160" spans="3:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F160" s="22" t="s">
-        <v>913</v>
+        <v>1074</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>946</v>
+        <v>716</v>
       </c>
     </row>
     <row r="161" spans="6:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F161" s="22" t="s">
-        <v>914</v>
+        <v>1073</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>947</v>
+        <v>717</v>
       </c>
     </row>
     <row r="162" spans="6:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="F162" s="22" t="s">
-        <v>915</v>
+        <v>1072</v>
       </c>
       <c r="G162" s="12" t="s">
-        <v>948</v>
+        <v>718</v>
       </c>
     </row>
     <row r="163" spans="6:7" ht="116" x14ac:dyDescent="0.35">
       <c r="F163" s="22" t="s">
-        <v>916</v>
+        <v>1069</v>
       </c>
       <c r="G163" s="12" t="s">
-        <v>949</v>
+        <v>719</v>
       </c>
     </row>
     <row r="164" spans="6:7" ht="174" x14ac:dyDescent="0.35">
       <c r="F164" s="22" t="s">
-        <v>917</v>
+        <v>1070</v>
       </c>
       <c r="G164" s="12" t="s">
-        <v>950</v>
+        <v>720</v>
       </c>
     </row>
     <row r="165" spans="6:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="F165" s="22" t="s">
-        <v>918</v>
+        <v>1071</v>
       </c>
       <c r="G165" s="12" t="s">
-        <v>951</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/499a.xlsx
+++ b/Documentation/499a.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="1099">
   <si>
     <t>Genre</t>
   </si>
@@ -4480,8 +4480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6125,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="B65" zoomScale="84" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="B66" zoomScale="84" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7335,12 +7335,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" customWidth="1"/>
     <col min="7" max="7" width="21.81640625" customWidth="1"/>
